--- a/public/data/source/A2.xlsx
+++ b/public/data/source/A2.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>常住人口出生率 ‰</t>
+          <t>常住人口死亡率 ‰</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -600,93 +600,93 @@
         <v>1978</v>
       </c>
       <c r="B2" t="n">
-        <v>12.93</v>
+        <v>6.12</v>
       </c>
       <c r="C2" t="n">
-        <v>15.47</v>
+        <v>6.26</v>
       </c>
       <c r="D2" t="n">
-        <v>20.88</v>
+        <v>6.49</v>
       </c>
       <c r="E2" t="n">
-        <v>15.66</v>
+        <v>6.55</v>
       </c>
       <c r="F2" t="n">
-        <v>18.5</v>
+        <v>5.2</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>19.95</v>
+        <v>6.08</v>
       </c>
       <c r="I2" t="n">
-        <v>16.84</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.3</v>
-      </c>
+        <v>4.68</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>15.63</v>
+        <v>6.09</v>
       </c>
       <c r="L2" t="n">
-        <v>18.17</v>
+        <v>5.83</v>
       </c>
       <c r="M2" t="n">
-        <v>20.49</v>
+        <v>4.78</v>
       </c>
       <c r="N2" t="n">
-        <v>25.35</v>
+        <v>6.31</v>
       </c>
       <c r="O2" t="n">
-        <v>27.01</v>
+        <v>7.39</v>
       </c>
       <c r="P2" t="n">
-        <v>16.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>21.92</v>
+        <v>6.3</v>
       </c>
       <c r="R2" t="n">
-        <v>18.67</v>
+        <v>7.06</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>7.01</v>
       </c>
       <c r="T2" t="n">
-        <v>22.14</v>
+        <v>5.44</v>
       </c>
       <c r="U2" t="n">
-        <v>24.69</v>
+        <v>5.79</v>
       </c>
       <c r="V2" t="n">
-        <v>24.19</v>
-      </c>
-      <c r="W2" t="inlineStr"/>
+        <v>4.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6.52</v>
+      </c>
       <c r="X2" t="n">
-        <v>15.1</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.62</v>
+        <v>7.38</v>
       </c>
       <c r="Z2" t="n">
-        <v>28.37</v>
+        <v>6.93</v>
       </c>
       <c r="AA2" t="n">
-        <v>22.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB2" t="n">
-        <v>17.24</v>
+        <v>6.92</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.77</v>
+        <v>5.87</v>
       </c>
       <c r="AD2" t="n">
-        <v>26.15</v>
+        <v>6.66</v>
       </c>
       <c r="AE2" t="n">
-        <v>28.48</v>
+        <v>5.46</v>
       </c>
       <c r="AF2" t="n">
-        <v>22.55</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="3">
@@ -694,93 +694,93 @@
         <v>1979</v>
       </c>
       <c r="B3" t="n">
-        <v>13.67</v>
+        <v>5.92</v>
       </c>
       <c r="C3" t="n">
-        <v>14.57</v>
+        <v>5.94</v>
       </c>
       <c r="D3" t="n">
-        <v>19.86</v>
+        <v>6.36</v>
       </c>
       <c r="E3" t="n">
-        <v>15.62</v>
+        <v>6.41</v>
       </c>
       <c r="F3" t="n">
-        <v>18.1</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>19.41</v>
+        <v>5.52</v>
       </c>
       <c r="I3" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.3</v>
-      </c>
+        <v>4.33</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>14.63</v>
+        <v>5.85</v>
       </c>
       <c r="L3" t="n">
-        <v>17.98</v>
+        <v>5.89</v>
       </c>
       <c r="M3" t="n">
-        <v>21.79</v>
+        <v>4.69</v>
       </c>
       <c r="N3" t="n">
-        <v>22.91</v>
+        <v>6.28</v>
       </c>
       <c r="O3" t="n">
-        <v>20.97</v>
+        <v>7.23</v>
       </c>
       <c r="P3" t="n">
-        <v>16.94</v>
+        <v>6.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.51</v>
+        <v>6.35</v>
       </c>
       <c r="R3" t="n">
-        <v>19.87</v>
+        <v>7.11</v>
       </c>
       <c r="S3" t="n">
-        <v>17.84</v>
+        <v>7.12</v>
       </c>
       <c r="T3" t="n">
-        <v>23.6</v>
+        <v>5.61</v>
       </c>
       <c r="U3" t="n">
-        <v>25.26</v>
+        <v>6.07</v>
       </c>
       <c r="V3" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="W3" t="inlineStr"/>
+        <v>4.73</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6.52</v>
+      </c>
       <c r="X3" t="n">
-        <v>15.2</v>
+        <v>6.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>26.89</v>
+        <v>7.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.08</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB3" t="n">
-        <v>17.01</v>
+        <v>6.86</v>
       </c>
       <c r="AC3" t="n">
-        <v>16.54</v>
+        <v>5.72</v>
       </c>
       <c r="AD3" t="n">
-        <v>24.47</v>
+        <v>6.48</v>
       </c>
       <c r="AE3" t="n">
-        <v>27.56</v>
+        <v>5.56</v>
       </c>
       <c r="AF3" t="n">
-        <v>22.54</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="4">
@@ -788,93 +788,93 @@
         <v>1980</v>
       </c>
       <c r="B4" t="n">
-        <v>15.56</v>
+        <v>6.3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.29</v>
+        <v>6.04</v>
       </c>
       <c r="D4" t="n">
-        <v>20.47</v>
+        <v>6.46</v>
       </c>
       <c r="E4" t="n">
-        <v>16.95</v>
+        <v>6.49</v>
       </c>
       <c r="F4" t="n">
-        <v>16.5</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>15.81</v>
+        <v>5.79</v>
       </c>
       <c r="I4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.6</v>
-      </c>
+        <v>4.86</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>14.69</v>
+        <v>6.57</v>
       </c>
       <c r="L4" t="n">
-        <v>15.59</v>
+        <v>6.29</v>
       </c>
       <c r="M4" t="n">
-        <v>19.9</v>
+        <v>4.62</v>
       </c>
       <c r="N4" t="n">
-        <v>18.68</v>
+        <v>6.27</v>
       </c>
       <c r="O4" t="n">
-        <v>18.57</v>
+        <v>6.38</v>
       </c>
       <c r="P4" t="n">
-        <v>13.91</v>
+        <v>6.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>6.32</v>
       </c>
       <c r="R4" t="n">
-        <v>20.36</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>17.68</v>
+        <v>6.88</v>
       </c>
       <c r="T4" t="n">
-        <v>22.82</v>
+        <v>5.48</v>
       </c>
       <c r="U4" t="n">
-        <v>25.17</v>
+        <v>5.8</v>
       </c>
       <c r="V4" t="n">
-        <v>24.12</v>
-      </c>
-      <c r="W4" t="inlineStr"/>
+        <v>4.72</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.46</v>
+      </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>24.7</v>
+        <v>7.04</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.91</v>
+        <v>7.36</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.16</v>
+        <v>6.97</v>
       </c>
       <c r="AC4" t="n">
-        <v>16.53</v>
+        <v>5.15</v>
       </c>
       <c r="AD4" t="n">
-        <v>21.14</v>
+        <v>5.61</v>
       </c>
       <c r="AE4" t="n">
-        <v>24.96</v>
+        <v>4.72</v>
       </c>
       <c r="AF4" t="n">
-        <v>21.28</v>
+        <v>7.62</v>
       </c>
     </row>
     <row r="5">
@@ -882,93 +882,93 @@
         <v>1981</v>
       </c>
       <c r="B5" t="n">
-        <v>16.93</v>
+        <v>6.02</v>
       </c>
       <c r="C5" t="n">
-        <v>17.9</v>
+        <v>5.99</v>
       </c>
       <c r="D5" t="n">
-        <v>24</v>
+        <v>6.1</v>
       </c>
       <c r="E5" t="n">
-        <v>20.31</v>
+        <v>6.54</v>
       </c>
       <c r="F5" t="n">
-        <v>17.3</v>
+        <v>4.9</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>17.67</v>
+        <v>5.32</v>
       </c>
       <c r="I5" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="J5" t="n">
-        <v>16.8</v>
-      </c>
+        <v>4.83</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>16.83</v>
+        <v>6.22</v>
       </c>
       <c r="L5" t="n">
-        <v>17.93</v>
+        <v>6.27</v>
       </c>
       <c r="M5" t="n">
-        <v>18.73</v>
+        <v>4.81</v>
       </c>
       <c r="N5" t="n">
-        <v>23.4</v>
+        <v>6.25</v>
       </c>
       <c r="O5" t="n">
-        <v>20.42</v>
+        <v>6.54</v>
       </c>
       <c r="P5" t="n">
-        <v>16.48</v>
+        <v>6.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>20.64</v>
+        <v>6.57</v>
       </c>
       <c r="R5" t="n">
-        <v>20.17</v>
+        <v>7.33</v>
       </c>
       <c r="S5" t="n">
-        <v>21.11</v>
+        <v>7.03</v>
       </c>
       <c r="T5" t="n">
-        <v>24.47</v>
+        <v>5.58</v>
       </c>
       <c r="U5" t="n">
-        <v>27.3</v>
+        <v>5.55</v>
       </c>
       <c r="V5" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>4.88</v>
+      </c>
+      <c r="W5" t="n">
+        <v>6.7</v>
+      </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.72</v>
+        <v>7.52</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.36</v>
+        <v>8.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>24.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.4</v>
+        <v>6.78</v>
       </c>
       <c r="AC5" t="n">
-        <v>20.12</v>
+        <v>5.72</v>
       </c>
       <c r="AD5" t="n">
-        <v>20.86</v>
+        <v>5.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>29.65</v>
+        <v>6.08</v>
       </c>
       <c r="AF5" t="n">
-        <v>21.09</v>
+        <v>7.46</v>
       </c>
     </row>
     <row r="6">
@@ -976,93 +976,93 @@
         <v>1982</v>
       </c>
       <c r="B6" t="n">
-        <v>20.04</v>
+        <v>5.68</v>
       </c>
       <c r="C6" t="n">
-        <v>20.05</v>
+        <v>5.64</v>
       </c>
       <c r="D6" t="n">
-        <v>19.35</v>
+        <v>5.94</v>
       </c>
       <c r="E6" t="n">
-        <v>21.07</v>
+        <v>6.64</v>
       </c>
       <c r="F6" t="n">
-        <v>21.2</v>
+        <v>5.7</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>16.76</v>
+        <v>5.83</v>
       </c>
       <c r="I6" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18.5</v>
-      </c>
+        <v>4.88</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>16.43</v>
+        <v>5.75</v>
       </c>
       <c r="L6" t="n">
-        <v>18.31</v>
+        <v>5.94</v>
       </c>
       <c r="M6" t="n">
-        <v>18.38</v>
+        <v>4.78</v>
       </c>
       <c r="N6" t="n">
-        <v>27.91</v>
+        <v>6.35</v>
       </c>
       <c r="O6" t="n">
-        <v>19.18</v>
+        <v>6.07</v>
       </c>
       <c r="P6" t="n">
-        <v>17.05</v>
+        <v>6.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.62</v>
+        <v>6.21</v>
       </c>
       <c r="R6" t="n">
-        <v>17.26</v>
+        <v>7.2</v>
       </c>
       <c r="S6" t="n">
-        <v>21.98</v>
+        <v>6.77</v>
       </c>
       <c r="T6" t="n">
-        <v>23.09</v>
+        <v>5.92</v>
       </c>
       <c r="U6" t="n">
-        <v>26.88</v>
+        <v>5.64</v>
       </c>
       <c r="V6" t="n">
-        <v>22.44</v>
-      </c>
-      <c r="W6" t="inlineStr"/>
+        <v>4.58</v>
+      </c>
+      <c r="W6" t="n">
+        <v>6.83</v>
+      </c>
       <c r="X6" t="n">
-        <v>15.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.81</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.8</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="AA6" t="n">
-        <v>24.5</v>
+        <v>7.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.02</v>
+        <v>6.67</v>
       </c>
       <c r="AC6" t="n">
-        <v>19.3</v>
+        <v>5.63</v>
       </c>
       <c r="AD6" t="n">
-        <v>19.46</v>
+        <v>5.1</v>
       </c>
       <c r="AE6" t="n">
-        <v>28.95</v>
+        <v>5.82</v>
       </c>
       <c r="AF6" t="n">
-        <v>21.16</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="7">
@@ -1070,93 +1070,93 @@
         <v>1983</v>
       </c>
       <c r="B7" t="n">
-        <v>15.63</v>
+        <v>5.49</v>
       </c>
       <c r="C7" t="n">
-        <v>17.14</v>
+        <v>5.41</v>
       </c>
       <c r="D7" t="n">
-        <v>17.91</v>
+        <v>6.6</v>
       </c>
       <c r="E7" t="n">
-        <v>20.81</v>
+        <v>6.62</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>5.5</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>12.38</v>
+        <v>5.35</v>
       </c>
       <c r="I7" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15</v>
-      </c>
+        <v>5.49</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>11.97</v>
+        <v>5.95</v>
       </c>
       <c r="L7" t="n">
-        <v>15.89</v>
+        <v>6.37</v>
       </c>
       <c r="M7" t="n">
-        <v>17.75</v>
+        <v>5.28</v>
       </c>
       <c r="N7" t="n">
-        <v>24.53</v>
+        <v>6.31</v>
       </c>
       <c r="O7" t="n">
-        <v>21.92</v>
+        <v>8.23</v>
       </c>
       <c r="P7" t="n">
-        <v>15.1</v>
+        <v>6.73</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.38</v>
+        <v>6.3</v>
       </c>
       <c r="R7" t="n">
-        <v>20.53</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>16.48</v>
+        <v>6.79</v>
       </c>
       <c r="T7" t="n">
-        <v>21</v>
+        <v>6.32</v>
       </c>
       <c r="U7" t="n">
-        <v>18.52</v>
+        <v>5.6</v>
       </c>
       <c r="V7" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="W7" t="inlineStr"/>
+        <v>4.55</v>
+      </c>
+      <c r="W7" t="n">
+        <v>6.79</v>
+      </c>
       <c r="X7" t="n">
-        <v>13.1</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>20.81</v>
+        <v>9.16</v>
       </c>
       <c r="Z7" t="n">
-        <v>23.57</v>
+        <v>9.19</v>
       </c>
       <c r="AA7" t="n">
-        <v>27</v>
+        <v>8.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.46</v>
+        <v>6.52</v>
       </c>
       <c r="AC7" t="n">
-        <v>19.79</v>
+        <v>6.76</v>
       </c>
       <c r="AD7" t="n">
-        <v>15.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.29</v>
+        <v>4.06</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.31</v>
+        <v>6.97</v>
       </c>
     </row>
     <row r="8">
@@ -1164,93 +1164,93 @@
         <v>1984</v>
       </c>
       <c r="B8" t="n">
-        <v>16.74</v>
+        <v>5.53</v>
       </c>
       <c r="C8" t="n">
-        <v>15.67</v>
+        <v>5.43</v>
       </c>
       <c r="D8" t="n">
-        <v>16.73</v>
+        <v>5.41</v>
       </c>
       <c r="E8" t="n">
-        <v>19.96</v>
+        <v>6</v>
       </c>
       <c r="F8" t="n">
-        <v>18.9</v>
+        <v>5.5</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>11.84</v>
+        <v>5.34</v>
       </c>
       <c r="I8" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13.7</v>
-      </c>
+        <v>4.67</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>10.42</v>
+        <v>5.9</v>
       </c>
       <c r="L8" t="n">
-        <v>12.52</v>
+        <v>5.99</v>
       </c>
       <c r="M8" t="n">
-        <v>16.08</v>
+        <v>5.32</v>
       </c>
       <c r="N8" t="n">
-        <v>25.68</v>
+        <v>6.25</v>
       </c>
       <c r="O8" t="n">
-        <v>25.3</v>
+        <v>6.8</v>
       </c>
       <c r="P8" t="n">
-        <v>13.8</v>
+        <v>5.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>18.89</v>
+        <v>6.26</v>
       </c>
       <c r="R8" t="n">
-        <v>19</v>
+        <v>8.35</v>
       </c>
       <c r="S8" t="n">
-        <v>16.66</v>
+        <v>7.2</v>
       </c>
       <c r="T8" t="n">
-        <v>20.75</v>
+        <v>6.21</v>
       </c>
       <c r="U8" t="n">
-        <v>28.34</v>
+        <v>5.87</v>
       </c>
       <c r="V8" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="W8" t="inlineStr"/>
+        <v>4.15</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.83</v>
+      </c>
       <c r="X8" t="n">
-        <v>10.8</v>
+        <v>7.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>18.85</v>
+        <v>7.3</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.29</v>
+        <v>7.92</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.61</v>
+        <v>6.15</v>
       </c>
       <c r="AC8" t="n">
-        <v>19.78</v>
+        <v>6.01</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.94</v>
+        <v>5.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>18.58</v>
+        <v>3.77</v>
       </c>
       <c r="AF8" t="n">
-        <v>19.76</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="9">
@@ -1258,93 +1258,93 @@
         <v>1985</v>
       </c>
       <c r="B9" t="n">
-        <v>15.45</v>
+        <v>5.75</v>
       </c>
       <c r="C9" t="n">
-        <v>13.94</v>
+        <v>5.78</v>
       </c>
       <c r="D9" t="n">
-        <v>17.1</v>
+        <v>5.3</v>
       </c>
       <c r="E9" t="n">
-        <v>21.36</v>
+        <v>6.36</v>
       </c>
       <c r="F9" t="n">
-        <v>17.2</v>
+        <v>5.7</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>11.91</v>
+        <v>5.32</v>
       </c>
       <c r="I9" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12.7</v>
-      </c>
+        <v>4.76</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>10.84</v>
+        <v>5.87</v>
       </c>
       <c r="L9" t="n">
-        <v>12.61</v>
+        <v>6.05</v>
       </c>
       <c r="M9" t="n">
-        <v>15.61</v>
+        <v>5.4</v>
       </c>
       <c r="N9" t="n">
-        <v>23.88</v>
+        <v>6.18</v>
       </c>
       <c r="O9" t="n">
-        <v>20.29</v>
+        <v>5.39</v>
       </c>
       <c r="P9" t="n">
-        <v>15.12</v>
+        <v>6.64</v>
       </c>
       <c r="Q9" t="n">
-        <v>20.09</v>
+        <v>6.13</v>
       </c>
       <c r="R9" t="n">
-        <v>19.95</v>
+        <v>7.62</v>
       </c>
       <c r="S9" t="n">
-        <v>18.16</v>
+        <v>6.47</v>
       </c>
       <c r="T9" t="n">
-        <v>20.6</v>
+        <v>6.33</v>
       </c>
       <c r="U9" t="n">
-        <v>25.51</v>
+        <v>5.6</v>
       </c>
       <c r="V9" t="n">
-        <v>14.55</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
+        <v>4.13</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.8</v>
+      </c>
       <c r="X9" t="n">
-        <v>15.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.33</v>
+        <v>5.91</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.55</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.3</v>
+        <v>10.1</v>
       </c>
       <c r="AB9" t="n">
-        <v>16.09</v>
+        <v>5.99</v>
       </c>
       <c r="AC9" t="n">
-        <v>18.31</v>
+        <v>5.46</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.24</v>
+        <v>4.58</v>
       </c>
       <c r="AE9" t="n">
-        <v>17.18</v>
+        <v>3.88</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.8</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="10">
@@ -1352,93 +1352,93 @@
         <v>1986</v>
       </c>
       <c r="B10" t="n">
-        <v>15.82</v>
+        <v>4.47</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>5.71</v>
       </c>
       <c r="D10" t="n">
-        <v>20.42</v>
+        <v>6.12</v>
       </c>
       <c r="E10" t="n">
-        <v>20.28</v>
+        <v>6.48</v>
       </c>
       <c r="F10" t="n">
-        <v>19.1</v>
+        <v>5.9</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>13.7</v>
+        <v>5.38</v>
       </c>
       <c r="I10" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14.5</v>
-      </c>
+        <v>5.45</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>13.2</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>15.96</v>
+        <v>5.94</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>6.6</v>
       </c>
       <c r="N10" t="n">
-        <v>24.02</v>
+        <v>5.85</v>
       </c>
       <c r="O10" t="n">
-        <v>24.15</v>
+        <v>5.53</v>
       </c>
       <c r="P10" t="n">
-        <v>19.9</v>
+        <v>7.28</v>
       </c>
       <c r="Q10" t="n">
-        <v>23.65</v>
+        <v>6.44</v>
       </c>
       <c r="R10" t="n">
-        <v>21.01</v>
+        <v>7.74</v>
       </c>
       <c r="S10" t="n">
-        <v>19.9</v>
+        <v>6.3</v>
       </c>
       <c r="T10" t="n">
-        <v>22.15</v>
+        <v>5.7</v>
       </c>
       <c r="U10" t="n">
-        <v>27.8</v>
+        <v>6.68</v>
       </c>
       <c r="V10" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="W10" t="inlineStr"/>
+        <v>4.05</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.59</v>
+      </c>
       <c r="X10" t="n">
-        <v>20.5</v>
+        <v>6.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.11</v>
+        <v>6.05</v>
       </c>
       <c r="Z10" t="n">
-        <v>26.03</v>
+        <v>7.87</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.5</v>
+        <v>8.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>17.03</v>
+        <v>5.71</v>
       </c>
       <c r="AC10" t="n">
-        <v>21.14</v>
+        <v>5.91</v>
       </c>
       <c r="AD10" t="n">
-        <v>24.94</v>
+        <v>6.01</v>
       </c>
       <c r="AE10" t="n">
-        <v>25.49</v>
+        <v>4.54</v>
       </c>
       <c r="AF10" t="n">
-        <v>20.54</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="11">
@@ -1446,93 +1446,93 @@
         <v>1987</v>
       </c>
       <c r="B11" t="n">
-        <v>17.29</v>
+        <v>5.4</v>
       </c>
       <c r="C11" t="n">
-        <v>17.07</v>
+        <v>6.08</v>
       </c>
       <c r="D11" t="n">
-        <v>22.5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>21.57</v>
+        <v>6.46</v>
       </c>
       <c r="F11" t="n">
-        <v>19.7</v>
+        <v>6.1</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>15.35</v>
+        <v>5.46</v>
       </c>
       <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15.3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>15.42</v>
+        <v>5.79</v>
       </c>
       <c r="L11" t="n">
-        <v>17.01</v>
+        <v>6.92</v>
       </c>
       <c r="M11" t="n">
-        <v>18.9</v>
+        <v>5.9</v>
       </c>
       <c r="N11" t="n">
-        <v>24.91</v>
+        <v>5.79</v>
       </c>
       <c r="O11" t="n">
-        <v>22.92</v>
+        <v>7.23</v>
       </c>
       <c r="P11" t="n">
-        <v>23.35</v>
+        <v>7.07</v>
       </c>
       <c r="Q11" t="n">
-        <v>26.22</v>
+        <v>6.32</v>
       </c>
       <c r="R11" t="n">
-        <v>21.43</v>
+        <v>7.13</v>
       </c>
       <c r="S11" t="n">
-        <v>23.62</v>
+        <v>7.07</v>
       </c>
       <c r="T11" t="n">
-        <v>22.12</v>
+        <v>5.7</v>
       </c>
       <c r="U11" t="n">
-        <v>24.42</v>
+        <v>7.36</v>
       </c>
       <c r="V11" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="W11" t="inlineStr"/>
+        <v>4.23</v>
+      </c>
+      <c r="W11" t="n">
+        <v>6.52</v>
+      </c>
       <c r="X11" t="n">
-        <v>17.9</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.69</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.97</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>24.2</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="n">
-        <v>16.78</v>
+        <v>5.56</v>
       </c>
       <c r="AC11" t="n">
-        <v>20.55</v>
+        <v>5.71</v>
       </c>
       <c r="AD11" t="n">
-        <v>22.59</v>
+        <v>6.42</v>
       </c>
       <c r="AE11" t="n">
-        <v>25.14</v>
+        <v>5.04</v>
       </c>
       <c r="AF11" t="n">
-        <v>21.03</v>
+        <v>5.96</v>
       </c>
     </row>
     <row r="12">
@@ -1540,93 +1540,93 @@
         <v>1988</v>
       </c>
       <c r="B12" t="n">
-        <v>14.43</v>
+        <v>5.08</v>
       </c>
       <c r="C12" t="n">
-        <v>15.92</v>
+        <v>5.65</v>
       </c>
       <c r="D12" t="n">
-        <v>20.35</v>
+        <v>5.5</v>
       </c>
       <c r="E12" t="n">
-        <v>22.17</v>
+        <v>6.42</v>
       </c>
       <c r="F12" t="n">
-        <v>19</v>
+        <v>5.7</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>14.1</v>
+        <v>5.2</v>
       </c>
       <c r="I12" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>13.2</v>
-      </c>
+        <v>4.41</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>16.03</v>
+        <v>5.89</v>
       </c>
       <c r="L12" t="n">
-        <v>15.54</v>
+        <v>6.35</v>
       </c>
       <c r="M12" t="n">
-        <v>20.8</v>
+        <v>5.6</v>
       </c>
       <c r="N12" t="n">
-        <v>24.34</v>
+        <v>5.81</v>
       </c>
       <c r="O12" t="n">
-        <v>19.9</v>
+        <v>5.8</v>
       </c>
       <c r="P12" t="n">
-        <v>17.54</v>
+        <v>6.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.95</v>
+        <v>5.83</v>
       </c>
       <c r="R12" t="n">
-        <v>19.08</v>
+        <v>6.44</v>
       </c>
       <c r="S12" t="n">
-        <v>23.32</v>
+        <v>6.82</v>
       </c>
       <c r="T12" t="n">
-        <v>20.9</v>
+        <v>5.07</v>
       </c>
       <c r="U12" t="n">
-        <v>22.18</v>
+        <v>6.36</v>
       </c>
       <c r="V12" t="n">
-        <v>20.63</v>
-      </c>
-      <c r="W12" t="inlineStr"/>
+        <v>5.23</v>
+      </c>
+      <c r="W12" t="n">
+        <v>6.79</v>
+      </c>
       <c r="X12" t="n">
-        <v>18.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.81</v>
+        <v>6.01</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.01</v>
+        <v>7.13</v>
       </c>
       <c r="AA12" t="n">
-        <v>22.7</v>
+        <v>7.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>21.04</v>
+        <v>6.11</v>
       </c>
       <c r="AC12" t="n">
-        <v>20.41</v>
+        <v>5.06</v>
       </c>
       <c r="AD12" t="n">
-        <v>24.33</v>
+        <v>5.05</v>
       </c>
       <c r="AE12" t="n">
-        <v>24.79</v>
+        <v>5.24</v>
       </c>
       <c r="AF12" t="n">
-        <v>19.72</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="13">
@@ -1634,93 +1634,93 @@
         <v>1989</v>
       </c>
       <c r="B13" t="n">
-        <v>12.84</v>
+        <v>5.35</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5</v>
+        <v>6.49</v>
       </c>
       <c r="D13" t="n">
-        <v>20.19</v>
+        <v>5.44</v>
       </c>
       <c r="E13" t="n">
-        <v>21.38</v>
+        <v>6.3</v>
       </c>
       <c r="F13" t="n">
-        <v>19.3</v>
+        <v>5.8</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>5.05</v>
       </c>
       <c r="I13" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12.5</v>
-      </c>
+        <v>5.47</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>17.15</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>15.2</v>
+        <v>6.41</v>
       </c>
       <c r="M13" t="n">
-        <v>23.6</v>
+        <v>5.9</v>
       </c>
       <c r="N13" t="n">
-        <v>24.67</v>
+        <v>6.1</v>
       </c>
       <c r="O13" t="n">
-        <v>23.04</v>
+        <v>6.26</v>
       </c>
       <c r="P13" t="n">
-        <v>16.88</v>
+        <v>5.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.51</v>
+        <v>5.76</v>
       </c>
       <c r="R13" t="n">
-        <v>21.09</v>
+        <v>6.94</v>
       </c>
       <c r="S13" t="n">
-        <v>22.91</v>
+        <v>7.07</v>
       </c>
       <c r="T13" t="n">
-        <v>20.27</v>
+        <v>5.73</v>
       </c>
       <c r="U13" t="n">
-        <v>20.34</v>
+        <v>5.72</v>
       </c>
       <c r="V13" t="n">
-        <v>23.48</v>
-      </c>
-      <c r="W13" t="inlineStr"/>
+        <v>5.55</v>
+      </c>
+      <c r="W13" t="n">
+        <v>6.93</v>
+      </c>
       <c r="X13" t="n">
-        <v>19.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.23</v>
+        <v>6.83</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.07</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>24.2</v>
+        <v>8</v>
       </c>
       <c r="AB13" t="n">
-        <v>17.3</v>
+        <v>5.43</v>
       </c>
       <c r="AC13" t="n">
-        <v>22.57</v>
+        <v>5.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>23.66</v>
+        <v>5.93</v>
       </c>
       <c r="AE13" t="n">
-        <v>23.59</v>
+        <v>4.38</v>
       </c>
       <c r="AF13" t="n">
-        <v>21.15</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="14">
@@ -1728,95 +1728,97 @@
         <v>1990</v>
       </c>
       <c r="B14" t="n">
-        <v>13.04</v>
+        <v>5.81</v>
       </c>
       <c r="C14" t="n">
-        <v>15.62</v>
+        <v>5.79</v>
       </c>
       <c r="D14" t="n">
-        <v>20.46</v>
+        <v>6.82</v>
       </c>
       <c r="E14" t="n">
-        <v>22.54</v>
+        <v>6.56</v>
       </c>
       <c r="F14" t="n">
-        <v>21.2</v>
+        <v>7.21</v>
       </c>
       <c r="G14" t="n">
-        <v>15.6</v>
+        <v>6.01</v>
       </c>
       <c r="H14" t="n">
-        <v>19.49</v>
+        <v>5.65</v>
       </c>
       <c r="I14" t="n">
-        <v>18.11</v>
+        <v>6.35</v>
       </c>
       <c r="J14" t="n">
-        <v>10.2</v>
+        <v>6.64</v>
       </c>
       <c r="K14" t="n">
-        <v>20.54</v>
+        <v>6.53</v>
       </c>
       <c r="L14" t="n">
-        <v>15.33</v>
+        <v>6.31</v>
       </c>
       <c r="M14" t="n">
-        <v>24.47</v>
+        <v>6.25</v>
       </c>
       <c r="N14" t="n">
-        <v>24.44</v>
+        <v>6.71</v>
       </c>
       <c r="O14" t="n">
-        <v>24.59</v>
+        <v>7.54</v>
       </c>
       <c r="P14" t="n">
-        <v>18.21</v>
+        <v>6.96</v>
       </c>
       <c r="Q14" t="n">
-        <v>24.92</v>
+        <v>6.52</v>
       </c>
       <c r="R14" t="n">
-        <v>21.6</v>
+        <v>7.3</v>
       </c>
       <c r="S14" t="n">
-        <v>23.93</v>
+        <v>7.23</v>
       </c>
       <c r="T14" t="n">
-        <v>22.26</v>
+        <v>5.76</v>
       </c>
       <c r="U14" t="n">
-        <v>20.2</v>
+        <v>6.6</v>
       </c>
       <c r="V14" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="W14" t="inlineStr"/>
+        <v>6.28</v>
+      </c>
+      <c r="W14" t="n">
+        <v>6.73</v>
+      </c>
       <c r="X14" t="n">
-        <v>19.1</v>
+        <v>7.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>23.09</v>
+        <v>7.9</v>
       </c>
       <c r="Z14" t="n">
-        <v>23.6</v>
+        <v>7.92</v>
       </c>
       <c r="AA14" t="n">
-        <v>26</v>
+        <v>7.55</v>
       </c>
       <c r="AB14" t="n">
-        <v>23.48</v>
+        <v>6.52</v>
       </c>
       <c r="AC14" t="n">
-        <v>20.68</v>
+        <v>6.08</v>
       </c>
       <c r="AD14" t="n">
-        <v>24.34</v>
+        <v>7.47</v>
       </c>
       <c r="AE14" t="n">
-        <v>24.34</v>
+        <v>5.52</v>
       </c>
       <c r="AF14" t="n">
-        <v>26.41</v>
+        <v>7.82</v>
       </c>
     </row>
     <row r="15">
@@ -1824,95 +1826,97 @@
         <v>1991</v>
       </c>
       <c r="B15" t="n">
-        <v>8.029999999999999</v>
+        <v>5.82</v>
       </c>
       <c r="C15" t="n">
-        <v>11.94</v>
+        <v>5.78</v>
       </c>
       <c r="D15" t="n">
-        <v>16.61</v>
+        <v>6.75</v>
       </c>
       <c r="E15" t="n">
-        <v>21.56</v>
+        <v>6.87</v>
       </c>
       <c r="F15" t="n">
-        <v>16.8</v>
+        <v>6.97</v>
       </c>
       <c r="G15" t="n">
-        <v>12.1</v>
+        <v>6.64</v>
       </c>
       <c r="H15" t="n">
-        <v>17.09</v>
+        <v>4.8</v>
       </c>
       <c r="I15" t="n">
-        <v>15.89</v>
+        <v>5.7</v>
       </c>
       <c r="J15" t="n">
-        <v>7.8</v>
+        <v>7.01</v>
       </c>
       <c r="K15" t="n">
-        <v>17.05</v>
+        <v>6.5</v>
       </c>
       <c r="L15" t="n">
-        <v>14.48</v>
+        <v>6.39</v>
       </c>
       <c r="M15" t="n">
-        <v>21.19</v>
+        <v>6.06</v>
       </c>
       <c r="N15" t="n">
-        <v>20.03</v>
+        <v>6.26</v>
       </c>
       <c r="O15" t="n">
-        <v>21.2</v>
+        <v>7.13</v>
       </c>
       <c r="P15" t="n">
-        <v>15.4</v>
+        <v>6.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.78</v>
+        <v>6.63</v>
       </c>
       <c r="R15" t="n">
-        <v>20.7</v>
+        <v>7.36</v>
       </c>
       <c r="S15" t="n">
-        <v>20.5</v>
+        <v>7.3</v>
       </c>
       <c r="T15" t="n">
-        <v>20.4</v>
+        <v>5.91</v>
       </c>
       <c r="U15" t="n">
-        <v>21.89</v>
+        <v>7.24</v>
       </c>
       <c r="V15" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="W15" t="inlineStr"/>
+        <v>5.99</v>
+      </c>
+      <c r="W15" t="n">
+        <v>6.55</v>
+      </c>
       <c r="X15" t="n">
-        <v>15.8</v>
+        <v>7.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.42</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>8.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>24.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>19.82</v>
+        <v>6.51</v>
       </c>
       <c r="AC15" t="n">
-        <v>19.38</v>
+        <v>6.05</v>
       </c>
       <c r="AD15" t="n">
-        <v>23.37</v>
+        <v>8.35</v>
       </c>
       <c r="AE15" t="n">
-        <v>21.96</v>
+        <v>5.13</v>
       </c>
       <c r="AF15" t="n">
-        <v>24.45</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="16">
@@ -1920,95 +1924,97 @@
         <v>1992</v>
       </c>
       <c r="B16" t="n">
-        <v>9.220000000000001</v>
+        <v>6.11</v>
       </c>
       <c r="C16" t="n">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>15.33</v>
+        <v>6.43</v>
       </c>
       <c r="E16" t="n">
-        <v>19.59</v>
+        <v>6.94</v>
       </c>
       <c r="F16" t="n">
-        <v>17.1</v>
+        <v>6.73</v>
       </c>
       <c r="G16" t="n">
-        <v>12.57</v>
+        <v>6.11</v>
       </c>
       <c r="H16" t="n">
-        <v>15.74</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>16.25</v>
+        <v>6.12</v>
       </c>
       <c r="J16" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="L16" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="M16" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="N16" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="S16" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="U16" t="n">
         <v>7.28</v>
       </c>
-      <c r="K16" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14.72</v>
-      </c>
-      <c r="M16" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="N16" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="O16" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="P16" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>18.13</v>
-      </c>
-      <c r="R16" t="n">
-        <v>19.05</v>
-      </c>
-      <c r="S16" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="T16" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="U16" t="n">
-        <v>20.19</v>
-      </c>
       <c r="V16" t="n">
-        <v>21.35</v>
-      </c>
-      <c r="W16" t="inlineStr"/>
+        <v>6.07</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7.09</v>
+      </c>
       <c r="X16" t="n">
-        <v>16.3</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.4</v>
+        <v>8.52</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>23.6</v>
+        <v>8.09</v>
       </c>
       <c r="AB16" t="n">
-        <v>18.85</v>
+        <v>6.57</v>
       </c>
       <c r="AC16" t="n">
-        <v>19.37</v>
+        <v>6.64</v>
       </c>
       <c r="AD16" t="n">
-        <v>22.54</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE16" t="n">
-        <v>20.11</v>
+        <v>5.36</v>
       </c>
       <c r="AF16" t="n">
-        <v>22.8</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="17">
@@ -2016,95 +2022,97 @@
         <v>1993</v>
       </c>
       <c r="B17" t="n">
-        <v>9.35</v>
+        <v>6.16</v>
       </c>
       <c r="C17" t="n">
-        <v>10.71</v>
+        <v>6.2</v>
       </c>
       <c r="D17" t="n">
-        <v>15.43</v>
+        <v>6.11</v>
       </c>
       <c r="E17" t="n">
-        <v>17.48</v>
+        <v>6.36</v>
       </c>
       <c r="F17" t="n">
-        <v>18.5</v>
+        <v>6.83</v>
       </c>
       <c r="G17" t="n">
-        <v>12.43</v>
+        <v>6.11</v>
       </c>
       <c r="H17" t="n">
-        <v>15.28</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
-        <v>15.9</v>
+        <v>5.52</v>
       </c>
       <c r="J17" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="K17" t="n">
-        <v>13.97</v>
+        <v>6.61</v>
       </c>
       <c r="L17" t="n">
-        <v>13.61</v>
+        <v>6.58</v>
       </c>
       <c r="M17" t="n">
-        <v>17.18</v>
+        <v>6.51</v>
       </c>
       <c r="N17" t="n">
-        <v>16.72</v>
+        <v>5.62</v>
       </c>
       <c r="O17" t="n">
-        <v>20.33</v>
+        <v>6.89</v>
       </c>
       <c r="P17" t="n">
-        <v>10.49</v>
+        <v>6.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>15.87</v>
+        <v>6.35</v>
       </c>
       <c r="R17" t="n">
-        <v>20.04</v>
+        <v>6.93</v>
       </c>
       <c r="S17" t="n">
-        <v>14.08</v>
+        <v>7.13</v>
       </c>
       <c r="T17" t="n">
-        <v>17.59</v>
+        <v>5.57</v>
       </c>
       <c r="U17" t="n">
-        <v>19.58</v>
+        <v>6.35</v>
       </c>
       <c r="V17" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="W17" t="inlineStr"/>
+        <v>5.26</v>
+      </c>
+      <c r="W17" t="n">
+        <v>6.84</v>
+      </c>
       <c r="X17" t="n">
-        <v>16.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>22.6</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>8.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.63</v>
+        <v>6.55</v>
       </c>
       <c r="AC17" t="n">
-        <v>20.16</v>
+        <v>6.84</v>
       </c>
       <c r="AD17" t="n">
-        <v>20.5</v>
+        <v>8.26</v>
       </c>
       <c r="AE17" t="n">
-        <v>19.43</v>
+        <v>5.36</v>
       </c>
       <c r="AF17" t="n">
-        <v>21.53</v>
+        <v>7.68</v>
       </c>
     </row>
     <row r="18">
@@ -2112,95 +2120,97 @@
         <v>1994</v>
       </c>
       <c r="B18" t="n">
-        <v>8.960000000000001</v>
+        <v>5.76</v>
       </c>
       <c r="C18" t="n">
-        <v>10.98</v>
+        <v>6.19</v>
       </c>
       <c r="D18" t="n">
-        <v>14.93</v>
+        <v>6.5</v>
       </c>
       <c r="E18" t="n">
-        <v>17.46</v>
+        <v>6.7</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="G18" t="n">
-        <v>12.26</v>
+        <v>6.03</v>
       </c>
       <c r="H18" t="n">
-        <v>14.11</v>
+        <v>5.12</v>
       </c>
       <c r="I18" t="n">
-        <v>15.15</v>
+        <v>5.47</v>
       </c>
       <c r="J18" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
-        <v>13.78</v>
+        <v>6.86</v>
       </c>
       <c r="L18" t="n">
-        <v>13.24</v>
+        <v>6.64</v>
       </c>
       <c r="M18" t="n">
-        <v>16.7</v>
+        <v>6.86</v>
       </c>
       <c r="N18" t="n">
-        <v>16.24</v>
+        <v>5.95</v>
       </c>
       <c r="O18" t="n">
-        <v>19.38</v>
+        <v>7</v>
       </c>
       <c r="P18" t="n">
-        <v>9.69</v>
+        <v>6.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>15.36</v>
+        <v>6.34</v>
       </c>
       <c r="R18" t="n">
-        <v>18.17</v>
+        <v>6.68</v>
       </c>
       <c r="S18" t="n">
-        <v>13.88</v>
+        <v>7.03</v>
       </c>
       <c r="T18" t="n">
-        <v>17.11</v>
+        <v>5.37</v>
       </c>
       <c r="U18" t="n">
-        <v>18.84</v>
+        <v>6.6</v>
       </c>
       <c r="V18" t="n">
-        <v>20.77</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
+        <v>6.29</v>
+      </c>
+      <c r="W18" t="n">
+        <v>6.7</v>
+      </c>
       <c r="X18" t="n">
-        <v>16.9</v>
+        <v>7</v>
       </c>
       <c r="Y18" t="n">
-        <v>22.92</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>8</v>
       </c>
       <c r="AA18" t="n">
-        <v>24.9</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AB18" t="n">
-        <v>17.59</v>
+        <v>6.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>20.82</v>
+        <v>6.84</v>
       </c>
       <c r="AD18" t="n">
-        <v>22.06</v>
+        <v>6.82</v>
       </c>
       <c r="AE18" t="n">
-        <v>19.67</v>
+        <v>6.02</v>
       </c>
       <c r="AF18" t="n">
-        <v>20.82</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="19">
@@ -2208,95 +2218,97 @@
         <v>1995</v>
       </c>
       <c r="B19" t="n">
-        <v>7.92</v>
+        <v>5.12</v>
       </c>
       <c r="C19" t="n">
-        <v>10.23</v>
+        <v>6.23</v>
       </c>
       <c r="D19" t="n">
-        <v>13.93</v>
+        <v>6.32</v>
       </c>
       <c r="E19" t="n">
-        <v>16.6</v>
+        <v>6.12</v>
       </c>
       <c r="F19" t="n">
-        <v>17.2</v>
+        <v>6.7</v>
       </c>
       <c r="G19" t="n">
-        <v>12.17</v>
+        <v>6.15</v>
       </c>
       <c r="H19" t="n">
-        <v>12.9</v>
+        <v>6.09</v>
       </c>
       <c r="I19" t="n">
-        <v>13.23</v>
+        <v>5.33</v>
       </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>7.05</v>
       </c>
       <c r="K19" t="n">
-        <v>12.32</v>
+        <v>6.56</v>
       </c>
       <c r="L19" t="n">
-        <v>12.66</v>
+        <v>6.75</v>
       </c>
       <c r="M19" t="n">
-        <v>16.07</v>
+        <v>6.41</v>
       </c>
       <c r="N19" t="n">
-        <v>15.2</v>
+        <v>5.9</v>
       </c>
       <c r="O19" t="n">
-        <v>18.94</v>
+        <v>7.28</v>
       </c>
       <c r="P19" t="n">
-        <v>9.82</v>
+        <v>6.47</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.41</v>
+        <v>6.28</v>
       </c>
       <c r="R19" t="n">
-        <v>16.18</v>
+        <v>6.91</v>
       </c>
       <c r="S19" t="n">
-        <v>13.02</v>
+        <v>7.15</v>
       </c>
       <c r="T19" t="n">
-        <v>16.93</v>
+        <v>5.33</v>
       </c>
       <c r="U19" t="n">
-        <v>17.54</v>
+        <v>6.53</v>
       </c>
       <c r="V19" t="n">
-        <v>20.12</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
+        <v>5.61</v>
+      </c>
+      <c r="W19" t="n">
+        <v>7.17</v>
+      </c>
       <c r="X19" t="n">
-        <v>17.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>21.86</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.75</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB19" t="n">
-        <v>15.93</v>
+        <v>6.57</v>
       </c>
       <c r="AC19" t="n">
-        <v>20.65</v>
+        <v>6.49</v>
       </c>
       <c r="AD19" t="n">
-        <v>22.01</v>
+        <v>6.89</v>
       </c>
       <c r="AE19" t="n">
-        <v>19.28</v>
+        <v>5.49</v>
       </c>
       <c r="AF19" t="n">
-        <v>18.9</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="20">
@@ -2304,95 +2316,97 @@
         <v>1996</v>
       </c>
       <c r="B20" t="n">
-        <v>8.02</v>
+        <v>5.34</v>
       </c>
       <c r="C20" t="n">
-        <v>10.09</v>
+        <v>6.53</v>
       </c>
       <c r="D20" t="n">
-        <v>13.85</v>
+        <v>6.55</v>
       </c>
       <c r="E20" t="n">
-        <v>16.59</v>
+        <v>6.25</v>
       </c>
       <c r="F20" t="n">
-        <v>16.1</v>
+        <v>6.43</v>
       </c>
       <c r="G20" t="n">
-        <v>12.15</v>
+        <v>6.19</v>
       </c>
       <c r="H20" t="n">
-        <v>12.53</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>12.4</v>
+        <v>5.05</v>
       </c>
       <c r="J20" t="n">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="K20" t="n">
-        <v>12.11</v>
+        <v>6.58</v>
       </c>
       <c r="L20" t="n">
-        <v>12.09</v>
+        <v>6.58</v>
       </c>
       <c r="M20" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="N20" t="n">
-        <v>13.22</v>
+        <v>5.94</v>
       </c>
       <c r="O20" t="n">
-        <v>17.53</v>
+        <v>7.02</v>
       </c>
       <c r="P20" t="n">
-        <v>10.6</v>
+        <v>6.76</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.28</v>
+        <v>6.44</v>
       </c>
       <c r="R20" t="n">
-        <v>16.08</v>
+        <v>6.93</v>
       </c>
       <c r="S20" t="n">
-        <v>12.81</v>
+        <v>7.2</v>
       </c>
       <c r="T20" t="n">
-        <v>16.69</v>
+        <v>5.63</v>
       </c>
       <c r="U20" t="n">
-        <v>16.83</v>
+        <v>6.82</v>
       </c>
       <c r="V20" t="n">
-        <v>20.08</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
+        <v>5.88</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.18</v>
+      </c>
       <c r="X20" t="n">
-        <v>16.6</v>
+        <v>7.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>22.05</v>
+        <v>7.69</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.87</v>
+        <v>7.94</v>
       </c>
       <c r="AA20" t="n">
-        <v>24.7</v>
+        <v>8.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>14.99</v>
+        <v>6.51</v>
       </c>
       <c r="AC20" t="n">
-        <v>18.43</v>
+        <v>6.64</v>
       </c>
       <c r="AD20" t="n">
-        <v>21.89</v>
+        <v>7.2</v>
       </c>
       <c r="AE20" t="n">
-        <v>19.03</v>
+        <v>5.25</v>
       </c>
       <c r="AF20" t="n">
-        <v>19.45</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="21">
@@ -2400,97 +2414,97 @@
         <v>1997</v>
       </c>
       <c r="B21" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="E21" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="F21" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="G21" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="M21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.09</v>
+      </c>
+      <c r="O21" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6.69</v>
+      </c>
+      <c r="S21" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U21" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="Z21" t="n">
         <v>7.91</v>
       </c>
-      <c r="C21" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="D21" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="L21" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="M21" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="O21" t="n">
-        <v>17.43</v>
-      </c>
-      <c r="P21" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>13.97</v>
-      </c>
-      <c r="R21" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="S21" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="T21" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="U21" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="V21" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="W21" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="X21" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>22.15</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>20.82</v>
-      </c>
       <c r="AA21" t="n">
-        <v>23.9</v>
+        <v>7.9</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.91</v>
+        <v>6.29</v>
       </c>
       <c r="AC21" t="n">
-        <v>17.22</v>
+        <v>6.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>21.8</v>
+        <v>6.95</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.9</v>
+        <v>5.43</v>
       </c>
       <c r="AF21" t="n">
-        <v>19.66</v>
+        <v>6.55</v>
       </c>
     </row>
     <row r="22">
@@ -2498,97 +2512,97 @@
         <v>1998</v>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="C22" t="n">
-        <v>9.890000000000001</v>
+        <v>6.49</v>
       </c>
       <c r="D22" t="n">
-        <v>13</v>
+        <v>6.18</v>
       </c>
       <c r="E22" t="n">
-        <v>16.09</v>
+        <v>6.17</v>
       </c>
       <c r="F22" t="n">
-        <v>14.4</v>
+        <v>6.17</v>
       </c>
       <c r="G22" t="n">
-        <v>11.39</v>
+        <v>6.81</v>
       </c>
       <c r="H22" t="n">
-        <v>11.81</v>
+        <v>5.76</v>
       </c>
       <c r="I22" t="n">
-        <v>11.68</v>
+        <v>5.32</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
-        <v>10.97</v>
+        <v>6.84</v>
       </c>
       <c r="L22" t="n">
-        <v>11.15</v>
+        <v>6.33</v>
       </c>
       <c r="M22" t="n">
-        <v>15.74</v>
+        <v>6.54</v>
       </c>
       <c r="N22" t="n">
-        <v>11.53</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>16.85</v>
+        <v>7.05</v>
       </c>
       <c r="P22" t="n">
-        <v>11.58</v>
+        <v>6.12</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.17</v>
+        <v>6.37</v>
       </c>
       <c r="R22" t="n">
-        <v>12.58</v>
+        <v>6.7</v>
       </c>
       <c r="S22" t="n">
-        <v>12.31</v>
+        <v>7.1</v>
       </c>
       <c r="T22" t="n">
-        <v>14.84</v>
+        <v>5.07</v>
       </c>
       <c r="U22" t="n">
-        <v>15.87</v>
+        <v>6.86</v>
       </c>
       <c r="V22" t="n">
-        <v>18.48</v>
+        <v>5.56</v>
       </c>
       <c r="W22" t="n">
-        <v>13.19</v>
+        <v>7.68</v>
       </c>
       <c r="X22" t="n">
-        <v>14.6</v>
+        <v>7.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.02</v>
+        <v>7.76</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.01</v>
+        <v>7.91</v>
       </c>
       <c r="AA22" t="n">
-        <v>23.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>13.56</v>
+        <v>6.43</v>
       </c>
       <c r="AC22" t="n">
-        <v>16.45</v>
+        <v>6.41</v>
       </c>
       <c r="AD22" t="n">
-        <v>21.26</v>
+        <v>6.78</v>
       </c>
       <c r="AE22" t="n">
-        <v>18.19</v>
+        <v>5.11</v>
       </c>
       <c r="AF22" t="n">
-        <v>19.74</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="23">
@@ -2596,97 +2610,97 @@
         <v>1999</v>
       </c>
       <c r="B23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C23" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="E23" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F23" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="J23" t="n">
         <v>6.5</v>
       </c>
-      <c r="C23" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="D23" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="E23" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="F23" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="G23" t="n">
-        <v>10.38</v>
-      </c>
-      <c r="H23" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="I23" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="J23" t="n">
-        <v>5.4</v>
-      </c>
       <c r="K23" t="n">
-        <v>10.5</v>
+        <v>6.94</v>
       </c>
       <c r="L23" t="n">
-        <v>10.64</v>
+        <v>6.35</v>
       </c>
       <c r="M23" t="n">
-        <v>15.1</v>
+        <v>6.5</v>
       </c>
       <c r="N23" t="n">
-        <v>11.06</v>
+        <v>5.85</v>
       </c>
       <c r="O23" t="n">
-        <v>16.51</v>
+        <v>7.02</v>
       </c>
       <c r="P23" t="n">
-        <v>11.08</v>
+        <v>6.27</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.07</v>
+        <v>6.35</v>
       </c>
       <c r="R23" t="n">
-        <v>11.57</v>
+        <v>6.37</v>
       </c>
       <c r="S23" t="n">
-        <v>11.72</v>
+        <v>7.12</v>
       </c>
       <c r="T23" t="n">
-        <v>13.57</v>
+        <v>4.81</v>
       </c>
       <c r="U23" t="n">
-        <v>14.96</v>
+        <v>6.93</v>
       </c>
       <c r="V23" t="n">
-        <v>17.26</v>
+        <v>5.23</v>
       </c>
       <c r="W23" t="n">
-        <v>11.9</v>
+        <v>6.94</v>
       </c>
       <c r="X23" t="n">
-        <v>13.8</v>
+        <v>7.02</v>
       </c>
       <c r="Y23" t="n">
-        <v>21.92</v>
+        <v>7.68</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.48</v>
+        <v>7.82</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.51</v>
+        <v>6.38</v>
       </c>
       <c r="AC23" t="n">
-        <v>15.61</v>
+        <v>6.44</v>
       </c>
       <c r="AD23" t="n">
-        <v>20.68</v>
+        <v>6.78</v>
       </c>
       <c r="AE23" t="n">
-        <v>17.97</v>
+        <v>5.65</v>
       </c>
       <c r="AF23" t="n">
-        <v>18.76</v>
+        <v>6.96</v>
       </c>
     </row>
     <row r="24">
@@ -2694,97 +2708,97 @@
         <v>2000</v>
       </c>
       <c r="B24" t="n">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.72</v>
+        <v>6.17</v>
       </c>
       <c r="D24" t="n">
-        <v>11.3</v>
+        <v>6.21</v>
       </c>
       <c r="E24" t="n">
-        <v>12.1</v>
+        <v>5.9</v>
       </c>
       <c r="F24" t="n">
-        <v>9.9</v>
+        <v>5.5</v>
       </c>
       <c r="G24" t="n">
-        <v>10.7</v>
+        <v>6.7</v>
       </c>
       <c r="H24" t="n">
-        <v>9.529999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="I24" t="n">
-        <v>9.43</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="K24" t="n">
-        <v>9.08</v>
+        <v>6.52</v>
       </c>
       <c r="L24" t="n">
-        <v>10.3</v>
+        <v>6.13</v>
       </c>
       <c r="M24" t="n">
-        <v>13.4</v>
+        <v>5.76</v>
       </c>
       <c r="N24" t="n">
-        <v>11.6</v>
+        <v>5.85</v>
       </c>
       <c r="O24" t="n">
-        <v>15.55</v>
+        <v>6.07</v>
       </c>
       <c r="P24" t="n">
-        <v>11.38</v>
+        <v>6.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.07</v>
+        <v>5.93</v>
       </c>
       <c r="R24" t="n">
-        <v>9.710000000000001</v>
+        <v>6.01</v>
       </c>
       <c r="S24" t="n">
-        <v>11.45</v>
+        <v>6.79</v>
       </c>
       <c r="T24" t="n">
-        <v>15.32</v>
+        <v>5.4</v>
       </c>
       <c r="U24" t="n">
-        <v>13.6</v>
+        <v>5.7</v>
       </c>
       <c r="V24" t="n">
-        <v>15.67</v>
+        <v>5.8</v>
       </c>
       <c r="W24" t="n">
-        <v>11.43</v>
+        <v>7.98</v>
       </c>
       <c r="X24" t="n">
-        <v>12.1</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>20.59</v>
+        <v>7.53</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.05</v>
+        <v>7.57</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>12.5</v>
+        <v>6.36</v>
       </c>
       <c r="AC24" t="n">
-        <v>14.38</v>
+        <v>6.41</v>
       </c>
       <c r="AD24" t="n">
-        <v>19.25</v>
+        <v>6.15</v>
       </c>
       <c r="AE24" t="n">
-        <v>16.49</v>
+        <v>4.57</v>
       </c>
       <c r="AF24" t="n">
-        <v>17.57</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="25">
@@ -2792,97 +2806,97 @@
         <v>2001</v>
       </c>
       <c r="B25" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="G25" t="n">
         <v>6.1</v>
       </c>
-      <c r="C25" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D25" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13.06</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="G25" t="n">
-        <v>7.74</v>
-      </c>
       <c r="H25" t="n">
-        <v>8.76</v>
+        <v>5.38</v>
       </c>
       <c r="I25" t="n">
-        <v>8.48</v>
+        <v>5.49</v>
       </c>
       <c r="J25" t="n">
-        <v>5.02</v>
+        <v>5.97</v>
       </c>
       <c r="K25" t="n">
-        <v>9.029999999999999</v>
+        <v>6.62</v>
       </c>
       <c r="L25" t="n">
-        <v>10.02</v>
+        <v>6.25</v>
       </c>
       <c r="M25" t="n">
-        <v>12.46</v>
+        <v>5.85</v>
       </c>
       <c r="N25" t="n">
-        <v>11.56</v>
+        <v>5.52</v>
       </c>
       <c r="O25" t="n">
-        <v>15.44</v>
+        <v>6.06</v>
       </c>
       <c r="P25" t="n">
-        <v>11.12</v>
+        <v>6.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.2</v>
+        <v>6.26</v>
       </c>
       <c r="R25" t="n">
-        <v>8.51</v>
+        <v>6.07</v>
       </c>
       <c r="S25" t="n">
-        <v>11.8</v>
+        <v>6.72</v>
       </c>
       <c r="T25" t="n">
-        <v>13.95</v>
+        <v>5.12</v>
       </c>
       <c r="U25" t="n">
-        <v>13.8</v>
+        <v>6.07</v>
       </c>
       <c r="V25" t="n">
-        <v>15.23</v>
+        <v>5.76</v>
       </c>
       <c r="W25" t="n">
-        <v>9.699999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
-        <v>11.16</v>
+        <v>6.79</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.56</v>
+        <v>7.23</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.51</v>
+        <v>7.57</v>
       </c>
       <c r="AA25" t="n">
-        <v>18.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>10.5</v>
+        <v>6.34</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.58</v>
+        <v>6.43</v>
       </c>
       <c r="AD25" t="n">
-        <v>19.06</v>
+        <v>6.44</v>
       </c>
       <c r="AE25" t="n">
-        <v>16.55</v>
+        <v>4.84</v>
       </c>
       <c r="AF25" t="n">
-        <v>16.82</v>
+        <v>5.69</v>
       </c>
     </row>
     <row r="26">
@@ -2890,97 +2904,97 @@
         <v>2002</v>
       </c>
       <c r="B26" t="n">
-        <v>6.6</v>
+        <v>5.73</v>
       </c>
       <c r="C26" t="n">
-        <v>7.49</v>
+        <v>6.04</v>
       </c>
       <c r="D26" t="n">
-        <v>11.53</v>
+        <v>6.25</v>
       </c>
       <c r="E26" t="n">
-        <v>12.86</v>
+        <v>6.14</v>
       </c>
       <c r="F26" t="n">
-        <v>9.6</v>
+        <v>5.92</v>
       </c>
       <c r="G26" t="n">
-        <v>7.38</v>
+        <v>6.04</v>
       </c>
       <c r="H26" t="n">
-        <v>8.300000000000001</v>
+        <v>5.11</v>
       </c>
       <c r="I26" t="n">
-        <v>7.98</v>
+        <v>5.44</v>
       </c>
       <c r="J26" t="n">
-        <v>5.41</v>
+        <v>5.95</v>
       </c>
       <c r="K26" t="n">
-        <v>9.17</v>
+        <v>6.99</v>
       </c>
       <c r="L26" t="n">
-        <v>9.98</v>
+        <v>6.19</v>
       </c>
       <c r="M26" t="n">
-        <v>11.2</v>
+        <v>5.17</v>
       </c>
       <c r="N26" t="n">
-        <v>11.35</v>
+        <v>5.57</v>
       </c>
       <c r="O26" t="n">
-        <v>14.74</v>
+        <v>6.02</v>
       </c>
       <c r="P26" t="n">
-        <v>11.17</v>
+        <v>6.62</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.41</v>
+        <v>6.38</v>
       </c>
       <c r="R26" t="n">
-        <v>8.380000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="S26" t="n">
-        <v>11.56</v>
+        <v>6.7</v>
       </c>
       <c r="T26" t="n">
-        <v>13.29</v>
+        <v>5.08</v>
       </c>
       <c r="U26" t="n">
-        <v>13.3</v>
+        <v>6.3</v>
       </c>
       <c r="V26" t="n">
-        <v>15.2</v>
+        <v>5.72</v>
       </c>
       <c r="W26" t="n">
-        <v>9.359999999999999</v>
+        <v>6.08</v>
       </c>
       <c r="X26" t="n">
-        <v>10.44</v>
+        <v>6.55</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.96</v>
+        <v>7.21</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.9</v>
+        <v>7.3</v>
       </c>
       <c r="AA26" t="n">
-        <v>18.8</v>
+        <v>6.07</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.48</v>
+        <v>6.36</v>
       </c>
       <c r="AC26" t="n">
-        <v>13.16</v>
+        <v>6.45</v>
       </c>
       <c r="AD26" t="n">
-        <v>18.05</v>
+        <v>6.35</v>
       </c>
       <c r="AE26" t="n">
-        <v>16.42</v>
+        <v>4.86</v>
       </c>
       <c r="AF26" t="n">
-        <v>16.3</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="27">
@@ -2988,97 +3002,97 @@
         <v>2003</v>
       </c>
       <c r="B27" t="n">
-        <v>5.06</v>
+        <v>5.15</v>
       </c>
       <c r="C27" t="n">
-        <v>7.14</v>
+        <v>6.04</v>
       </c>
       <c r="D27" t="n">
-        <v>11.43</v>
+        <v>6.27</v>
       </c>
       <c r="E27" t="n">
-        <v>12.26</v>
+        <v>6.04</v>
       </c>
       <c r="F27" t="n">
-        <v>9.24</v>
+        <v>6.17</v>
       </c>
       <c r="G27" t="n">
-        <v>6.9</v>
+        <v>5.83</v>
       </c>
       <c r="H27" t="n">
-        <v>7.25</v>
+        <v>5.64</v>
       </c>
       <c r="I27" t="n">
-        <v>7.48</v>
+        <v>5.45</v>
       </c>
       <c r="J27" t="n">
-        <v>4.85</v>
+        <v>6.2</v>
       </c>
       <c r="K27" t="n">
-        <v>9.039999999999999</v>
+        <v>7.03</v>
       </c>
       <c r="L27" t="n">
-        <v>9.66</v>
+        <v>6.38</v>
       </c>
       <c r="M27" t="n">
-        <v>11.15</v>
+        <v>5.2</v>
       </c>
       <c r="N27" t="n">
-        <v>11.43</v>
+        <v>5.58</v>
       </c>
       <c r="O27" t="n">
-        <v>14.07</v>
+        <v>5.98</v>
       </c>
       <c r="P27" t="n">
-        <v>11.42</v>
+        <v>6.64</v>
       </c>
       <c r="Q27" t="n">
-        <v>12.1</v>
+        <v>6.46</v>
       </c>
       <c r="R27" t="n">
-        <v>8.26</v>
+        <v>5.94</v>
       </c>
       <c r="S27" t="n">
-        <v>11.82</v>
+        <v>6.87</v>
       </c>
       <c r="T27" t="n">
-        <v>13.66</v>
+        <v>5.31</v>
       </c>
       <c r="U27" t="n">
-        <v>13.86</v>
+        <v>6.57</v>
       </c>
       <c r="V27" t="n">
-        <v>14.68</v>
+        <v>5.52</v>
       </c>
       <c r="W27" t="n">
-        <v>9.890000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="X27" t="n">
-        <v>9.18</v>
+        <v>6.06</v>
       </c>
       <c r="Y27" t="n">
-        <v>15.91</v>
+        <v>6.87</v>
       </c>
       <c r="Z27" t="n">
-        <v>17</v>
+        <v>7.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>10.67</v>
+        <v>6.38</v>
       </c>
       <c r="AC27" t="n">
-        <v>12.58</v>
+        <v>6.46</v>
       </c>
       <c r="AD27" t="n">
-        <v>16.94</v>
+        <v>6.09</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.68</v>
+        <v>4.73</v>
       </c>
       <c r="AF27" t="n">
-        <v>16.01</v>
+        <v>5.23</v>
       </c>
     </row>
     <row r="28">
@@ -3086,97 +3100,97 @@
         <v>2004</v>
       </c>
       <c r="B28" t="n">
-        <v>6.13</v>
+        <v>5.39</v>
       </c>
       <c r="C28" t="n">
-        <v>7.31</v>
+        <v>5.97</v>
       </c>
       <c r="D28" t="n">
-        <v>11.98</v>
+        <v>6.19</v>
       </c>
       <c r="E28" t="n">
-        <v>12.36</v>
+        <v>6.11</v>
       </c>
       <c r="F28" t="n">
-        <v>9.529999999999999</v>
+        <v>5.98</v>
       </c>
       <c r="G28" t="n">
-        <v>6.51</v>
+        <v>5.6</v>
       </c>
       <c r="H28" t="n">
-        <v>7.39</v>
+        <v>5.63</v>
       </c>
       <c r="I28" t="n">
-        <v>7.27</v>
+        <v>5.45</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>9.449999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="L28" t="n">
-        <v>10.71</v>
+        <v>5.76</v>
       </c>
       <c r="M28" t="n">
-        <v>11.62</v>
+        <v>5.5</v>
       </c>
       <c r="N28" t="n">
-        <v>11.58</v>
+        <v>5.62</v>
       </c>
       <c r="O28" t="n">
-        <v>13.61</v>
+        <v>5.99</v>
       </c>
       <c r="P28" t="n">
-        <v>12.5</v>
+        <v>6.49</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.67</v>
+        <v>6.47</v>
       </c>
       <c r="R28" t="n">
-        <v>8.43</v>
+        <v>6.03</v>
       </c>
       <c r="S28" t="n">
-        <v>11.89</v>
+        <v>6.8</v>
       </c>
       <c r="T28" t="n">
-        <v>13.13</v>
+        <v>5.12</v>
       </c>
       <c r="U28" t="n">
-        <v>13.32</v>
+        <v>6.12</v>
       </c>
       <c r="V28" t="n">
-        <v>14.77</v>
+        <v>5.79</v>
       </c>
       <c r="W28" t="n">
-        <v>9.449999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="X28" t="n">
-        <v>9.050000000000001</v>
+        <v>6.27</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.08</v>
+        <v>6.35</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.6</v>
+        <v>6.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>17.4</v>
+        <v>6.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>10.59</v>
+        <v>6.33</v>
       </c>
       <c r="AC28" t="n">
-        <v>12.43</v>
+        <v>6.52</v>
       </c>
       <c r="AD28" t="n">
-        <v>16.32</v>
+        <v>6.45</v>
       </c>
       <c r="AE28" t="n">
-        <v>15.97</v>
+        <v>4.79</v>
       </c>
       <c r="AF28" t="n">
-        <v>16</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="29">
@@ -3184,97 +3198,97 @@
         <v>2005</v>
       </c>
       <c r="B29" t="n">
-        <v>6.29</v>
+        <v>5.2</v>
       </c>
       <c r="C29" t="n">
-        <v>7.44</v>
+        <v>6.01</v>
       </c>
       <c r="D29" t="n">
-        <v>12.84</v>
+        <v>6.75</v>
       </c>
       <c r="E29" t="n">
-        <v>12.02</v>
+        <v>6</v>
       </c>
       <c r="F29" t="n">
-        <v>10.08</v>
+        <v>5.46</v>
       </c>
       <c r="G29" t="n">
-        <v>7.01</v>
+        <v>6.04</v>
       </c>
       <c r="H29" t="n">
-        <v>7.89</v>
+        <v>5.32</v>
       </c>
       <c r="I29" t="n">
-        <v>7.87</v>
+        <v>5.2</v>
       </c>
       <c r="J29" t="n">
-        <v>7.04</v>
+        <v>6.08</v>
       </c>
       <c r="K29" t="n">
-        <v>9.24</v>
+        <v>7.03</v>
       </c>
       <c r="L29" t="n">
-        <v>11.1</v>
+        <v>6.08</v>
       </c>
       <c r="M29" t="n">
-        <v>12.43</v>
+        <v>6.23</v>
       </c>
       <c r="N29" t="n">
-        <v>11.6</v>
+        <v>5.62</v>
       </c>
       <c r="O29" t="n">
-        <v>13.79</v>
+        <v>5.96</v>
       </c>
       <c r="P29" t="n">
-        <v>12.14</v>
+        <v>6.31</v>
       </c>
       <c r="Q29" t="n">
-        <v>11.55</v>
+        <v>6.3</v>
       </c>
       <c r="R29" t="n">
-        <v>8.74</v>
+        <v>5.69</v>
       </c>
       <c r="S29" t="n">
-        <v>11.9</v>
+        <v>6.75</v>
       </c>
       <c r="T29" t="n">
-        <v>11.7</v>
+        <v>4.68</v>
       </c>
       <c r="U29" t="n">
-        <v>14.26</v>
+        <v>6.09</v>
       </c>
       <c r="V29" t="n">
-        <v>14.65</v>
+        <v>5.72</v>
       </c>
       <c r="W29" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="X29" t="n">
-        <v>9.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>14.59</v>
+        <v>7.21</v>
       </c>
       <c r="Z29" t="n">
-        <v>14.72</v>
+        <v>6.75</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.9</v>
+        <v>7.15</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.02</v>
+        <v>6.01</v>
       </c>
       <c r="AC29" t="n">
-        <v>12.59</v>
+        <v>6.57</v>
       </c>
       <c r="AD29" t="n">
-        <v>15.7</v>
+        <v>6.21</v>
       </c>
       <c r="AE29" t="n">
-        <v>15.93</v>
+        <v>4.95</v>
       </c>
       <c r="AF29" t="n">
-        <v>16.42</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="30">
@@ -3282,97 +3296,97 @@
         <v>2006</v>
       </c>
       <c r="B30" t="n">
-        <v>6.26</v>
+        <v>4.94</v>
       </c>
       <c r="C30" t="n">
-        <v>7.67</v>
+        <v>6.07</v>
       </c>
       <c r="D30" t="n">
-        <v>12.82</v>
+        <v>6.59</v>
       </c>
       <c r="E30" t="n">
-        <v>11.48</v>
+        <v>5.73</v>
       </c>
       <c r="F30" t="n">
-        <v>9.869999999999999</v>
+        <v>5.91</v>
       </c>
       <c r="G30" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="H30" t="n">
-        <v>7.67</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>7.57</v>
+        <v>5.18</v>
       </c>
       <c r="J30" t="n">
-        <v>7.47</v>
+        <v>5.89</v>
       </c>
       <c r="K30" t="n">
-        <v>9.359999999999999</v>
+        <v>7.08</v>
       </c>
       <c r="L30" t="n">
-        <v>10.29</v>
+        <v>5.42</v>
       </c>
       <c r="M30" t="n">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
       <c r="N30" t="n">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="O30" t="n">
-        <v>13.8</v>
+        <v>6.01</v>
       </c>
       <c r="P30" t="n">
-        <v>11.6</v>
+        <v>6.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.59</v>
+        <v>6.27</v>
       </c>
       <c r="R30" t="n">
-        <v>9.08</v>
+        <v>5.95</v>
       </c>
       <c r="S30" t="n">
-        <v>11.92</v>
+        <v>6.73</v>
       </c>
       <c r="T30" t="n">
-        <v>11.78</v>
+        <v>4.49</v>
       </c>
       <c r="U30" t="n">
-        <v>14.44</v>
+        <v>6.1</v>
       </c>
       <c r="V30" t="n">
-        <v>14.59</v>
+        <v>5.73</v>
       </c>
       <c r="W30" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="X30" t="n">
-        <v>9.140000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="Y30" t="n">
-        <v>13.97</v>
+        <v>6.71</v>
       </c>
       <c r="Z30" t="n">
-        <v>13.2</v>
+        <v>6.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.4</v>
+        <v>5.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>10.19</v>
+        <v>6.15</v>
       </c>
       <c r="AC30" t="n">
-        <v>12.86</v>
+        <v>6.62</v>
       </c>
       <c r="AD30" t="n">
-        <v>15.24</v>
+        <v>6.27</v>
       </c>
       <c r="AE30" t="n">
-        <v>15.53</v>
+        <v>4.84</v>
       </c>
       <c r="AF30" t="n">
-        <v>15.79</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="31">
@@ -3380,97 +3394,97 @@
         <v>2007</v>
       </c>
       <c r="B31" t="n">
-        <v>8.32</v>
+        <v>4.83</v>
       </c>
       <c r="C31" t="n">
-        <v>7.91</v>
+        <v>5.86</v>
       </c>
       <c r="D31" t="n">
-        <v>13.33</v>
+        <v>6.78</v>
       </c>
       <c r="E31" t="n">
-        <v>11.31</v>
+        <v>5.97</v>
       </c>
       <c r="F31" t="n">
-        <v>10.21</v>
+        <v>5.73</v>
       </c>
       <c r="G31" t="n">
-        <v>6.89</v>
+        <v>5.36</v>
       </c>
       <c r="H31" t="n">
-        <v>7.55</v>
+        <v>5.05</v>
       </c>
       <c r="I31" t="n">
-        <v>7.88</v>
+        <v>5.39</v>
       </c>
       <c r="J31" t="n">
-        <v>9.07</v>
+        <v>6.03</v>
       </c>
       <c r="K31" t="n">
-        <v>9.369999999999999</v>
+        <v>7.07</v>
       </c>
       <c r="L31" t="n">
-        <v>10.38</v>
+        <v>5.57</v>
       </c>
       <c r="M31" t="n">
-        <v>12.75</v>
+        <v>6.4</v>
       </c>
       <c r="N31" t="n">
-        <v>11.9</v>
+        <v>5.9</v>
       </c>
       <c r="O31" t="n">
-        <v>13.86</v>
+        <v>5.99</v>
       </c>
       <c r="P31" t="n">
-        <v>11.11</v>
+        <v>6.11</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.26</v>
+        <v>6.32</v>
       </c>
       <c r="R31" t="n">
-        <v>9.19</v>
+        <v>5.96</v>
       </c>
       <c r="S31" t="n">
-        <v>11.96</v>
+        <v>6.71</v>
       </c>
       <c r="T31" t="n">
-        <v>11.96</v>
+        <v>4.66</v>
       </c>
       <c r="U31" t="n">
-        <v>14.19</v>
+        <v>5.99</v>
       </c>
       <c r="V31" t="n">
-        <v>14.62</v>
+        <v>5.71</v>
       </c>
       <c r="W31" t="n">
-        <v>10.1</v>
+        <v>6.3</v>
       </c>
       <c r="X31" t="n">
-        <v>9.210000000000001</v>
+        <v>6.29</v>
       </c>
       <c r="Y31" t="n">
-        <v>13.28</v>
+        <v>6.6</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.08</v>
+        <v>6.22</v>
       </c>
       <c r="AA31" t="n">
-        <v>16.4</v>
+        <v>5.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>10.21</v>
+        <v>6.16</v>
       </c>
       <c r="AC31" t="n">
-        <v>13.14</v>
+        <v>6.65</v>
       </c>
       <c r="AD31" t="n">
-        <v>14.93</v>
+        <v>6.13</v>
       </c>
       <c r="AE31" t="n">
-        <v>14.8</v>
+        <v>5.04</v>
       </c>
       <c r="AF31" t="n">
-        <v>16.79</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="32">
@@ -3478,97 +3492,97 @@
         <v>2008</v>
       </c>
       <c r="B32" t="n">
-        <v>8.17</v>
+        <v>4.59</v>
       </c>
       <c r="C32" t="n">
-        <v>8.130000000000001</v>
+        <v>5.94</v>
       </c>
       <c r="D32" t="n">
-        <v>13.04</v>
+        <v>6.49</v>
       </c>
       <c r="E32" t="n">
-        <v>11.32</v>
+        <v>6.01</v>
       </c>
       <c r="F32" t="n">
-        <v>9.81</v>
+        <v>5.54</v>
       </c>
       <c r="G32" t="n">
-        <v>6.32</v>
+        <v>5.22</v>
       </c>
       <c r="H32" t="n">
-        <v>6.65</v>
+        <v>5.04</v>
       </c>
       <c r="I32" t="n">
-        <v>7.91</v>
+        <v>5.68</v>
       </c>
       <c r="J32" t="n">
-        <v>8.890000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="K32" t="n">
-        <v>9.34</v>
+        <v>7.04</v>
       </c>
       <c r="L32" t="n">
-        <v>10.2</v>
+        <v>5.62</v>
       </c>
       <c r="M32" t="n">
-        <v>13.05</v>
+        <v>6.6</v>
       </c>
       <c r="N32" t="n">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="O32" t="n">
-        <v>13.92</v>
+        <v>6.01</v>
       </c>
       <c r="P32" t="n">
-        <v>11.25</v>
+        <v>6.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>11.42</v>
+        <v>6.45</v>
       </c>
       <c r="R32" t="n">
-        <v>9.210000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="S32" t="n">
-        <v>12.68</v>
+        <v>7.28</v>
       </c>
       <c r="T32" t="n">
-        <v>11.8</v>
+        <v>4.55</v>
       </c>
       <c r="U32" t="n">
-        <v>14.4</v>
+        <v>5.7</v>
       </c>
       <c r="V32" t="n">
-        <v>14.71</v>
+        <v>5.72</v>
       </c>
       <c r="W32" t="n">
-        <v>10.1</v>
+        <v>6.3</v>
       </c>
       <c r="X32" t="n">
-        <v>9.539999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="Y32" t="n">
-        <v>13.49</v>
+        <v>6.77</v>
       </c>
       <c r="Z32" t="n">
-        <v>12.63</v>
+        <v>6.31</v>
       </c>
       <c r="AA32" t="n">
-        <v>15.5</v>
+        <v>5.2</v>
       </c>
       <c r="AB32" t="n">
-        <v>10.29</v>
+        <v>6.21</v>
       </c>
       <c r="AC32" t="n">
-        <v>13.22</v>
+        <v>6.68</v>
       </c>
       <c r="AD32" t="n">
-        <v>14.49</v>
+        <v>6.14</v>
       </c>
       <c r="AE32" t="n">
-        <v>14.31</v>
+        <v>4.62</v>
       </c>
       <c r="AF32" t="n">
-        <v>16.05</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="33">
@@ -3576,97 +3590,97 @@
         <v>2009</v>
       </c>
       <c r="B33" t="n">
-        <v>8.06</v>
+        <v>4.33</v>
       </c>
       <c r="C33" t="n">
-        <v>8.300000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="D33" t="n">
-        <v>12.93</v>
+        <v>6.43</v>
       </c>
       <c r="E33" t="n">
-        <v>10.87</v>
+        <v>5.98</v>
       </c>
       <c r="F33" t="n">
-        <v>9.57</v>
+        <v>5.61</v>
       </c>
       <c r="G33" t="n">
-        <v>6.06</v>
+        <v>5.09</v>
       </c>
       <c r="H33" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="I33" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6</v>
+      </c>
+      <c r="O33" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="P33" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="T33" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U33" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="V33" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="W33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="Y33" t="n">
         <v>6.69</v>
       </c>
-      <c r="I33" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="J33" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="K33" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="L33" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="M33" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="P33" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="R33" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="S33" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="T33" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="U33" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="V33" t="n">
-        <v>14.66</v>
-      </c>
-      <c r="W33" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="X33" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>13.65</v>
-      </c>
       <c r="Z33" t="n">
-        <v>12.53</v>
+        <v>6.45</v>
       </c>
       <c r="AA33" t="n">
-        <v>15.3</v>
+        <v>5.07</v>
       </c>
       <c r="AB33" t="n">
-        <v>10.24</v>
+        <v>6.24</v>
       </c>
       <c r="AC33" t="n">
-        <v>13.32</v>
+        <v>6.71</v>
       </c>
       <c r="AD33" t="n">
-        <v>14.51</v>
+        <v>6.19</v>
       </c>
       <c r="AE33" t="n">
-        <v>14.38</v>
+        <v>4.7</v>
       </c>
       <c r="AF33" t="n">
-        <v>15.99</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="34">
@@ -3674,97 +3688,97 @@
         <v>2010</v>
       </c>
       <c r="B34" t="n">
-        <v>7.48</v>
+        <v>4.29</v>
       </c>
       <c r="C34" t="n">
-        <v>8.18</v>
+        <v>5.58</v>
       </c>
       <c r="D34" t="n">
-        <v>13.22</v>
+        <v>6.41</v>
       </c>
       <c r="E34" t="n">
-        <v>10.68</v>
+        <v>5.38</v>
       </c>
       <c r="F34" t="n">
-        <v>9.300000000000001</v>
+        <v>5.54</v>
       </c>
       <c r="G34" t="n">
-        <v>6.68</v>
+        <v>6.26</v>
       </c>
       <c r="H34" t="n">
-        <v>7.91</v>
+        <v>5.88</v>
       </c>
       <c r="I34" t="n">
-        <v>7.35</v>
+        <v>5.03</v>
       </c>
       <c r="J34" t="n">
-        <v>7.05</v>
+        <v>5.07</v>
       </c>
       <c r="K34" t="n">
-        <v>9.73</v>
+        <v>6.88</v>
       </c>
       <c r="L34" t="n">
-        <v>10.27</v>
+        <v>5.54</v>
       </c>
       <c r="M34" t="n">
-        <v>12.7</v>
+        <v>5.95</v>
       </c>
       <c r="N34" t="n">
-        <v>11.27</v>
+        <v>5.16</v>
       </c>
       <c r="O34" t="n">
-        <v>13.72</v>
+        <v>6.06</v>
       </c>
       <c r="P34" t="n">
-        <v>11.65</v>
+        <v>6.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>11.52</v>
+        <v>6.57</v>
       </c>
       <c r="R34" t="n">
-        <v>10.36</v>
+        <v>6.02</v>
       </c>
       <c r="S34" t="n">
-        <v>13.09</v>
+        <v>6.7</v>
       </c>
       <c r="T34" t="n">
-        <v>11.18</v>
+        <v>4.21</v>
       </c>
       <c r="U34" t="n">
-        <v>14.13</v>
+        <v>5.48</v>
       </c>
       <c r="V34" t="n">
-        <v>14.71</v>
+        <v>5.73</v>
       </c>
       <c r="W34" t="n">
-        <v>9.17</v>
+        <v>6.4</v>
       </c>
       <c r="X34" t="n">
-        <v>8.93</v>
+        <v>6.62</v>
       </c>
       <c r="Y34" t="n">
-        <v>13.96</v>
+        <v>6.55</v>
       </c>
       <c r="Z34" t="n">
-        <v>13.1</v>
+        <v>6.56</v>
       </c>
       <c r="AA34" t="n">
-        <v>15.23</v>
+        <v>5.55</v>
       </c>
       <c r="AB34" t="n">
-        <v>9.73</v>
+        <v>6.01</v>
       </c>
       <c r="AC34" t="n">
-        <v>12.05</v>
+        <v>6.02</v>
       </c>
       <c r="AD34" t="n">
-        <v>14.94</v>
+        <v>6.31</v>
       </c>
       <c r="AE34" t="n">
-        <v>14.14</v>
+        <v>5.1</v>
       </c>
       <c r="AF34" t="n">
-        <v>15.99</v>
+        <v>4.14</v>
       </c>
     </row>
     <row r="35">
@@ -3772,97 +3786,97 @@
         <v>2011</v>
       </c>
       <c r="B35" t="n">
-        <v>8.289999999999999</v>
+        <v>4.26</v>
       </c>
       <c r="C35" t="n">
-        <v>8.58</v>
+        <v>6.08</v>
       </c>
       <c r="D35" t="n">
-        <v>13.02</v>
+        <v>6.52</v>
       </c>
       <c r="E35" t="n">
-        <v>10.47</v>
+        <v>5.61</v>
       </c>
       <c r="F35" t="n">
-        <v>8.94</v>
+        <v>5.43</v>
       </c>
       <c r="G35" t="n">
-        <v>5.71</v>
+        <v>6.05</v>
       </c>
       <c r="H35" t="n">
-        <v>6.53</v>
+        <v>5.51</v>
       </c>
       <c r="I35" t="n">
-        <v>6.99</v>
+        <v>5.92</v>
       </c>
       <c r="J35" t="n">
-        <v>6.97</v>
+        <v>5.1</v>
       </c>
       <c r="K35" t="n">
-        <v>9.59</v>
+        <v>6.98</v>
       </c>
       <c r="L35" t="n">
-        <v>9.470000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="M35" t="n">
-        <v>12.23</v>
+        <v>5.91</v>
       </c>
       <c r="N35" t="n">
-        <v>11.41</v>
+        <v>5.2</v>
       </c>
       <c r="O35" t="n">
-        <v>13.48</v>
+        <v>5.98</v>
       </c>
       <c r="P35" t="n">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>11.56</v>
+        <v>6.62</v>
       </c>
       <c r="R35" t="n">
-        <v>10.39</v>
+        <v>6.01</v>
       </c>
       <c r="S35" t="n">
-        <v>13.35</v>
+        <v>6.8</v>
       </c>
       <c r="T35" t="n">
-        <v>10.45</v>
+        <v>4.35</v>
       </c>
       <c r="U35" t="n">
-        <v>13.71</v>
+        <v>6.04</v>
       </c>
       <c r="V35" t="n">
-        <v>14.72</v>
+        <v>5.75</v>
       </c>
       <c r="W35" t="n">
-        <v>9.880000000000001</v>
+        <v>6.71</v>
       </c>
       <c r="X35" t="n">
-        <v>9.789999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="Y35" t="n">
-        <v>13.31</v>
+        <v>6.93</v>
       </c>
       <c r="Z35" t="n">
-        <v>12.71</v>
+        <v>6.36</v>
       </c>
       <c r="AA35" t="n">
-        <v>15.39</v>
+        <v>5.13</v>
       </c>
       <c r="AB35" t="n">
-        <v>9.75</v>
+        <v>6.06</v>
       </c>
       <c r="AC35" t="n">
-        <v>12.08</v>
+        <v>6.03</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.43</v>
+        <v>6.12</v>
       </c>
       <c r="AE35" t="n">
-        <v>13.65</v>
+        <v>4.68</v>
       </c>
       <c r="AF35" t="n">
-        <v>14.99</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="36">
@@ -3870,97 +3884,97 @@
         <v>2012</v>
       </c>
       <c r="B36" t="n">
-        <v>9.050000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="C36" t="n">
-        <v>8.75</v>
+        <v>6.12</v>
       </c>
       <c r="D36" t="n">
-        <v>12.88</v>
+        <v>6.41</v>
       </c>
       <c r="E36" t="n">
-        <v>10.7</v>
+        <v>5.83</v>
       </c>
       <c r="F36" t="n">
-        <v>9.17</v>
+        <v>5.52</v>
       </c>
       <c r="G36" t="n">
-        <v>6.15</v>
+        <v>6.54</v>
       </c>
       <c r="H36" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="I36" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="J36" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L36" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="N36" t="n">
         <v>5.73</v>
       </c>
-      <c r="I36" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K36" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="L36" t="n">
-        <v>10.12</v>
-      </c>
-      <c r="M36" t="n">
-        <v>13</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12.74</v>
-      </c>
       <c r="O36" t="n">
-        <v>13.46</v>
+        <v>6.14</v>
       </c>
       <c r="P36" t="n">
-        <v>11.9</v>
+        <v>6.95</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.87</v>
+        <v>6.71</v>
       </c>
       <c r="R36" t="n">
-        <v>11</v>
+        <v>6.12</v>
       </c>
       <c r="S36" t="n">
-        <v>13.58</v>
+        <v>7.01</v>
       </c>
       <c r="T36" t="n">
-        <v>11.6</v>
+        <v>4.65</v>
       </c>
       <c r="U36" t="n">
-        <v>14.2</v>
+        <v>6.31</v>
       </c>
       <c r="V36" t="n">
-        <v>14.66</v>
+        <v>5.81</v>
       </c>
       <c r="W36" t="n">
-        <v>10.86</v>
+        <v>6.86</v>
       </c>
       <c r="X36" t="n">
-        <v>9.890000000000001</v>
+        <v>6.92</v>
       </c>
       <c r="Y36" t="n">
-        <v>13.27</v>
+        <v>6.96</v>
       </c>
       <c r="Z36" t="n">
-        <v>12.63</v>
+        <v>6.41</v>
       </c>
       <c r="AA36" t="n">
-        <v>15.48</v>
+        <v>5.21</v>
       </c>
       <c r="AB36" t="n">
-        <v>10.12</v>
+        <v>6.24</v>
       </c>
       <c r="AC36" t="n">
-        <v>12.11</v>
+        <v>6.05</v>
       </c>
       <c r="AD36" t="n">
-        <v>14.3</v>
+        <v>6.06</v>
       </c>
       <c r="AE36" t="n">
-        <v>13.26</v>
+        <v>4.33</v>
       </c>
       <c r="AF36" t="n">
-        <v>15.32</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="37">
@@ -3968,97 +3982,97 @@
         <v>2013</v>
       </c>
       <c r="B37" t="n">
-        <v>8.93</v>
+        <v>4.5</v>
       </c>
       <c r="C37" t="n">
-        <v>8.279999999999999</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>13.04</v>
+        <v>6.87</v>
       </c>
       <c r="E37" t="n">
-        <v>10.81</v>
+        <v>5.57</v>
       </c>
       <c r="F37" t="n">
-        <v>8.98</v>
+        <v>5.62</v>
       </c>
       <c r="G37" t="n">
-        <v>6.09</v>
+        <v>6.12</v>
       </c>
       <c r="H37" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="I37" t="n">
-        <v>6.86</v>
+        <v>6.08</v>
       </c>
       <c r="J37" t="n">
-        <v>8.18</v>
+        <v>5.24</v>
       </c>
       <c r="K37" t="n">
-        <v>9.44</v>
+        <v>7.01</v>
       </c>
       <c r="L37" t="n">
-        <v>10.01</v>
+        <v>5.45</v>
       </c>
       <c r="M37" t="n">
-        <v>12.88</v>
+        <v>6.06</v>
       </c>
       <c r="N37" t="n">
-        <v>12.2</v>
+        <v>6.01</v>
       </c>
       <c r="O37" t="n">
-        <v>13.19</v>
+        <v>6.28</v>
       </c>
       <c r="P37" t="n">
-        <v>11.41</v>
+        <v>6.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.27</v>
+        <v>6.76</v>
       </c>
       <c r="R37" t="n">
-        <v>11.08</v>
+        <v>6.15</v>
       </c>
       <c r="S37" t="n">
-        <v>13.5</v>
+        <v>6.96</v>
       </c>
       <c r="T37" t="n">
-        <v>10.71</v>
+        <v>4.69</v>
       </c>
       <c r="U37" t="n">
-        <v>14.28</v>
+        <v>6.35</v>
       </c>
       <c r="V37" t="n">
-        <v>14.59</v>
+        <v>5.9</v>
       </c>
       <c r="W37" t="n">
-        <v>10.37</v>
+        <v>6.77</v>
       </c>
       <c r="X37" t="n">
-        <v>9.9</v>
+        <v>6.9</v>
       </c>
       <c r="Y37" t="n">
-        <v>13.05</v>
+        <v>7.15</v>
       </c>
       <c r="Z37" t="n">
-        <v>12.6</v>
+        <v>6.43</v>
       </c>
       <c r="AA37" t="n">
-        <v>15.77</v>
+        <v>5.39</v>
       </c>
       <c r="AB37" t="n">
-        <v>10.01</v>
+        <v>6.15</v>
       </c>
       <c r="AC37" t="n">
-        <v>12.16</v>
+        <v>6.08</v>
       </c>
       <c r="AD37" t="n">
-        <v>14.16</v>
+        <v>6.13</v>
       </c>
       <c r="AE37" t="n">
-        <v>13.12</v>
+        <v>4.5</v>
       </c>
       <c r="AF37" t="n">
-        <v>15.84</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="38">
@@ -4066,97 +4080,97 @@
         <v>2014</v>
       </c>
       <c r="B38" t="n">
-        <v>9.75</v>
+        <v>4.89</v>
       </c>
       <c r="C38" t="n">
-        <v>8.19</v>
+        <v>6.05</v>
       </c>
       <c r="D38" t="n">
-        <v>13.18</v>
+        <v>6.23</v>
       </c>
       <c r="E38" t="n">
-        <v>10.92</v>
+        <v>5.93</v>
       </c>
       <c r="F38" t="n">
-        <v>9.31</v>
+        <v>5.75</v>
       </c>
       <c r="G38" t="n">
-        <v>6.49</v>
+        <v>6.23</v>
       </c>
       <c r="H38" t="n">
-        <v>6.62</v>
+        <v>6.22</v>
       </c>
       <c r="I38" t="n">
-        <v>7.37</v>
+        <v>6.46</v>
       </c>
       <c r="J38" t="n">
-        <v>8.35</v>
+        <v>5.21</v>
       </c>
       <c r="K38" t="n">
-        <v>9.449999999999999</v>
+        <v>7.02</v>
       </c>
       <c r="L38" t="n">
-        <v>10.51</v>
+        <v>5.51</v>
       </c>
       <c r="M38" t="n">
-        <v>12.86</v>
+        <v>5.89</v>
       </c>
       <c r="N38" t="n">
-        <v>13.7</v>
+        <v>6.2</v>
       </c>
       <c r="O38" t="n">
-        <v>13.24</v>
+        <v>6.26</v>
       </c>
       <c r="P38" t="n">
-        <v>14.23</v>
+        <v>6.84</v>
       </c>
       <c r="Q38" t="n">
-        <v>12.8</v>
+        <v>7.02</v>
       </c>
       <c r="R38" t="n">
-        <v>11.86</v>
+        <v>6.96</v>
       </c>
       <c r="S38" t="n">
-        <v>13.52</v>
+        <v>6.89</v>
       </c>
       <c r="T38" t="n">
-        <v>10.8</v>
+        <v>4.7</v>
       </c>
       <c r="U38" t="n">
-        <v>14.07</v>
+        <v>6.21</v>
       </c>
       <c r="V38" t="n">
-        <v>14.56</v>
+        <v>5.95</v>
       </c>
       <c r="W38" t="n">
-        <v>10.67</v>
+        <v>7.05</v>
       </c>
       <c r="X38" t="n">
-        <v>10.22</v>
+        <v>7.02</v>
       </c>
       <c r="Y38" t="n">
-        <v>12.98</v>
+        <v>7.18</v>
       </c>
       <c r="Z38" t="n">
-        <v>12.65</v>
+        <v>6.45</v>
       </c>
       <c r="AA38" t="n">
-        <v>15.76</v>
+        <v>5.21</v>
       </c>
       <c r="AB38" t="n">
-        <v>10.13</v>
+        <v>6.26</v>
       </c>
       <c r="AC38" t="n">
-        <v>12.21</v>
+        <v>6.11</v>
       </c>
       <c r="AD38" t="n">
-        <v>14.67</v>
+        <v>6.18</v>
       </c>
       <c r="AE38" t="n">
-        <v>13.1</v>
+        <v>4.53</v>
       </c>
       <c r="AF38" t="n">
-        <v>16.44</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="39">
@@ -4164,97 +4178,97 @@
         <v>2015</v>
       </c>
       <c r="B39" t="n">
-        <v>7.96</v>
+        <v>4.91</v>
       </c>
       <c r="C39" t="n">
-        <v>5.84</v>
+        <v>5.61</v>
       </c>
       <c r="D39" t="n">
-        <v>11.35</v>
+        <v>5.79</v>
       </c>
       <c r="E39" t="n">
-        <v>9.98</v>
+        <v>5.56</v>
       </c>
       <c r="F39" t="n">
-        <v>7.72</v>
+        <v>5.32</v>
       </c>
       <c r="G39" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="I39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="L39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>7.05</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="S39" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U39" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="V39" t="n">
+        <v>6</v>
+      </c>
+      <c r="W39" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="X39" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AD39" t="n">
         <v>6.17</v>
       </c>
-      <c r="H39" t="n">
-        <v>5.87</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="K39" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="L39" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="M39" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="N39" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="P39" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="R39" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="S39" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="T39" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="U39" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="V39" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="W39" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="X39" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>14.72</v>
-      </c>
       <c r="AE39" t="n">
-        <v>12.62</v>
+        <v>4.58</v>
       </c>
       <c r="AF39" t="n">
-        <v>15.59</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="40">
@@ -4262,97 +4276,97 @@
         <v>2016</v>
       </c>
       <c r="B40" t="n">
-        <v>9.32</v>
+        <v>5.16</v>
       </c>
       <c r="C40" t="n">
-        <v>7.37</v>
+        <v>5.54</v>
       </c>
       <c r="D40" t="n">
-        <v>12.42</v>
+        <v>6.36</v>
       </c>
       <c r="E40" t="n">
-        <v>10.29</v>
+        <v>5.52</v>
       </c>
       <c r="F40" t="n">
-        <v>9.029999999999999</v>
+        <v>5.69</v>
       </c>
       <c r="G40" t="n">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="H40" t="n">
-        <v>5.55</v>
+        <v>5.6</v>
       </c>
       <c r="I40" t="n">
-        <v>6.12</v>
+        <v>6.61</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>9.76</v>
+        <v>7.03</v>
       </c>
       <c r="L40" t="n">
-        <v>11.22</v>
+        <v>5.52</v>
       </c>
       <c r="M40" t="n">
-        <v>13.02</v>
+        <v>5.96</v>
       </c>
       <c r="N40" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="O40" t="n">
-        <v>13.45</v>
+        <v>6.16</v>
       </c>
       <c r="P40" t="n">
-        <v>17.89</v>
+        <v>7.05</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.26</v>
+        <v>7.11</v>
       </c>
       <c r="R40" t="n">
-        <v>12.04</v>
+        <v>6.97</v>
       </c>
       <c r="S40" t="n">
-        <v>13.57</v>
+        <v>7.01</v>
       </c>
       <c r="T40" t="n">
-        <v>11.85</v>
+        <v>4.41</v>
       </c>
       <c r="U40" t="n">
-        <v>13.82</v>
+        <v>5.95</v>
       </c>
       <c r="V40" t="n">
-        <v>14.57</v>
+        <v>6</v>
       </c>
       <c r="W40" t="n">
-        <v>11.77</v>
+        <v>7.24</v>
       </c>
       <c r="X40" t="n">
-        <v>10.48</v>
+        <v>6.99</v>
       </c>
       <c r="Y40" t="n">
-        <v>13.43</v>
+        <v>6.93</v>
       </c>
       <c r="Z40" t="n">
-        <v>13.16</v>
+        <v>6.55</v>
       </c>
       <c r="AA40" t="n">
-        <v>15.79</v>
+        <v>5.11</v>
       </c>
       <c r="AB40" t="n">
-        <v>10.64</v>
+        <v>6.23</v>
       </c>
       <c r="AC40" t="n">
-        <v>12.18</v>
+        <v>6.18</v>
       </c>
       <c r="AD40" t="n">
-        <v>14.7</v>
+        <v>6.18</v>
       </c>
       <c r="AE40" t="n">
-        <v>13.69</v>
+        <v>4.72</v>
       </c>
       <c r="AF40" t="n">
-        <v>15.34</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="41">
@@ -4360,97 +4374,97 @@
         <v>2017</v>
       </c>
       <c r="B41" t="n">
-        <v>9.06</v>
+        <v>5.24</v>
       </c>
       <c r="C41" t="n">
-        <v>7.65</v>
+        <v>5.05</v>
       </c>
       <c r="D41" t="n">
-        <v>13.2</v>
+        <v>6.6</v>
       </c>
       <c r="E41" t="n">
-        <v>11.06</v>
+        <v>5.45</v>
       </c>
       <c r="F41" t="n">
-        <v>9.470000000000001</v>
+        <v>5.74</v>
       </c>
       <c r="G41" t="n">
-        <v>6.49</v>
+        <v>6.93</v>
       </c>
       <c r="H41" t="n">
-        <v>6.76</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="P41" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="S41" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U41" t="n">
         <v>6.22</v>
       </c>
-      <c r="J41" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="L41" t="n">
-        <v>11.92</v>
-      </c>
-      <c r="M41" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="N41" t="n">
-        <v>15</v>
-      </c>
-      <c r="O41" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="P41" t="n">
-        <v>17.54</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="R41" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="S41" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="T41" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="U41" t="n">
-        <v>15.14</v>
-      </c>
       <c r="V41" t="n">
-        <v>14.73</v>
+        <v>6.01</v>
       </c>
       <c r="W41" t="n">
-        <v>11.18</v>
+        <v>7.27</v>
       </c>
       <c r="X41" t="n">
-        <v>11.26</v>
+        <v>7.03</v>
       </c>
       <c r="Y41" t="n">
-        <v>13.98</v>
+        <v>6.88</v>
       </c>
       <c r="Z41" t="n">
-        <v>13.53</v>
+        <v>6.68</v>
       </c>
       <c r="AA41" t="n">
-        <v>16</v>
+        <v>4.95</v>
       </c>
       <c r="AB41" t="n">
-        <v>11.11</v>
+        <v>6.24</v>
       </c>
       <c r="AC41" t="n">
-        <v>12.54</v>
+        <v>6.52</v>
       </c>
       <c r="AD41" t="n">
-        <v>14.42</v>
+        <v>6.17</v>
       </c>
       <c r="AE41" t="n">
-        <v>13.44</v>
+        <v>4.75</v>
       </c>
       <c r="AF41" t="n">
-        <v>15.88</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="42">
@@ -4458,97 +4472,97 @@
         <v>2018</v>
       </c>
       <c r="B42" t="n">
-        <v>8.24</v>
+        <v>5.5</v>
       </c>
       <c r="C42" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="D42" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E42" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F42" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="H42" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="I42" t="n">
         <v>6.67</v>
       </c>
-      <c r="D42" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="E42" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="F42" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="G42" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="H42" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5.98</v>
-      </c>
       <c r="J42" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="K42" t="n">
-        <v>9.32</v>
+        <v>7.03</v>
       </c>
       <c r="L42" t="n">
-        <v>11.02</v>
+        <v>5.58</v>
       </c>
       <c r="M42" t="n">
-        <v>12.41</v>
+        <v>5.96</v>
       </c>
       <c r="N42" t="n">
-        <v>13.2</v>
+        <v>6.2</v>
       </c>
       <c r="O42" t="n">
-        <v>13.43</v>
+        <v>6.06</v>
       </c>
       <c r="P42" t="n">
-        <v>13.26</v>
+        <v>7.18</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.72</v>
+        <v>6.8</v>
       </c>
       <c r="R42" t="n">
-        <v>11.54</v>
+        <v>7</v>
       </c>
       <c r="S42" t="n">
-        <v>12.19</v>
+        <v>7.08</v>
       </c>
       <c r="T42" t="n">
-        <v>12.79</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="n">
-        <v>14.12</v>
+        <v>5.96</v>
       </c>
       <c r="V42" t="n">
-        <v>14.48</v>
+        <v>6.01</v>
       </c>
       <c r="W42" t="n">
-        <v>11.02</v>
+        <v>7.54</v>
       </c>
       <c r="X42" t="n">
-        <v>11.05</v>
+        <v>7.01</v>
       </c>
       <c r="Y42" t="n">
-        <v>13.9</v>
+        <v>6.85</v>
       </c>
       <c r="Z42" t="n">
-        <v>13.19</v>
+        <v>6.32</v>
       </c>
       <c r="AA42" t="n">
-        <v>15.22</v>
+        <v>4.58</v>
       </c>
       <c r="AB42" t="n">
-        <v>10.67</v>
+        <v>6.24</v>
       </c>
       <c r="AC42" t="n">
-        <v>11.07</v>
+        <v>6.65</v>
       </c>
       <c r="AD42" t="n">
-        <v>14.31</v>
+        <v>6.25</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.32</v>
+        <v>5.54</v>
       </c>
       <c r="AF42" t="n">
-        <v>10.69</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="43">
@@ -4556,97 +4570,97 @@
         <v>2019</v>
       </c>
       <c r="B43" t="n">
-        <v>8.119999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="C43" t="n">
-        <v>6.73</v>
+        <v>5.3</v>
       </c>
       <c r="D43" t="n">
-        <v>10.83</v>
+        <v>6.12</v>
       </c>
       <c r="E43" t="n">
-        <v>9.119999999999999</v>
+        <v>5.85</v>
       </c>
       <c r="F43" t="n">
-        <v>8.23</v>
+        <v>5.66</v>
       </c>
       <c r="G43" t="n">
-        <v>6.45</v>
+        <v>7.25</v>
       </c>
       <c r="H43" t="n">
-        <v>6.05</v>
+        <v>6.9</v>
       </c>
       <c r="I43" t="n">
-        <v>5.73</v>
+        <v>6.74</v>
       </c>
       <c r="J43" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="K43" t="n">
-        <v>9.119999999999999</v>
+        <v>7.04</v>
       </c>
       <c r="L43" t="n">
-        <v>10.51</v>
+        <v>5.52</v>
       </c>
       <c r="M43" t="n">
-        <v>12.03</v>
+        <v>6.04</v>
       </c>
       <c r="N43" t="n">
-        <v>12.9</v>
+        <v>6.1</v>
       </c>
       <c r="O43" t="n">
-        <v>12.59</v>
+        <v>6.03</v>
       </c>
       <c r="P43" t="n">
-        <v>11.77</v>
+        <v>7.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>11.02</v>
+        <v>6.84</v>
       </c>
       <c r="R43" t="n">
-        <v>11.35</v>
+        <v>7.08</v>
       </c>
       <c r="S43" t="n">
-        <v>10.39</v>
+        <v>7.28</v>
       </c>
       <c r="T43" t="n">
-        <v>12.54</v>
+        <v>4.46</v>
       </c>
       <c r="U43" t="n">
-        <v>13.31</v>
+        <v>6.14</v>
       </c>
       <c r="V43" t="n">
-        <v>12.87</v>
+        <v>6.11</v>
       </c>
       <c r="W43" t="n">
-        <v>10.48</v>
+        <v>7.57</v>
       </c>
       <c r="X43" t="n">
-        <v>10.7</v>
+        <v>7.09</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.65</v>
+        <v>6.95</v>
       </c>
       <c r="Z43" t="n">
-        <v>12.63</v>
+        <v>6.2</v>
       </c>
       <c r="AA43" t="n">
-        <v>14.6</v>
+        <v>4.46</v>
       </c>
       <c r="AB43" t="n">
-        <v>10.55</v>
+        <v>6.28</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.6</v>
+        <v>6.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>13.66</v>
+        <v>6.08</v>
       </c>
       <c r="AE43" t="n">
-        <v>13.72</v>
+        <v>5.69</v>
       </c>
       <c r="AF43" t="n">
-        <v>8.140000000000001</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="44">
@@ -4654,97 +4668,97 @@
         <v>2020</v>
       </c>
       <c r="B44" t="n">
-        <v>6.98</v>
+        <v>4.59</v>
       </c>
       <c r="C44" t="n">
-        <v>5.99</v>
+        <v>5.92</v>
       </c>
       <c r="D44" t="n">
-        <v>8.16</v>
+        <v>7.22</v>
       </c>
       <c r="E44" t="n">
-        <v>8.26</v>
+        <v>7.02</v>
       </c>
       <c r="F44" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="G44" t="n">
-        <v>5.16</v>
+        <v>8.59</v>
       </c>
       <c r="H44" t="n">
-        <v>4.84</v>
+        <v>7.81</v>
       </c>
       <c r="I44" t="n">
-        <v>3.75</v>
+        <v>8.23</v>
       </c>
       <c r="J44" t="n">
-        <v>5.02</v>
+        <v>5.58</v>
       </c>
       <c r="K44" t="n">
-        <v>6.66</v>
+        <v>6.49</v>
       </c>
       <c r="L44" t="n">
-        <v>7.13</v>
+        <v>5.84</v>
       </c>
       <c r="M44" t="n">
-        <v>9.449999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="N44" t="n">
-        <v>9.210000000000001</v>
+        <v>6.24</v>
       </c>
       <c r="O44" t="n">
-        <v>9.48</v>
+        <v>6.61</v>
       </c>
       <c r="P44" t="n">
-        <v>8.56</v>
+        <v>7.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.24</v>
+        <v>7.15</v>
       </c>
       <c r="R44" t="n">
-        <v>8.279999999999999</v>
+        <v>7.67</v>
       </c>
       <c r="S44" t="n">
-        <v>8.529999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="T44" t="n">
-        <v>10.28</v>
+        <v>4.7</v>
       </c>
       <c r="U44" t="n">
-        <v>11.36</v>
+        <v>6.46</v>
       </c>
       <c r="V44" t="n">
-        <v>10.36</v>
+        <v>5.85</v>
       </c>
       <c r="W44" t="n">
-        <v>7.47</v>
+        <v>7.7</v>
       </c>
       <c r="X44" t="n">
-        <v>7.6</v>
+        <v>8.48</v>
       </c>
       <c r="Y44" t="n">
-        <v>13.7</v>
+        <v>7.17</v>
       </c>
       <c r="Z44" t="n">
-        <v>10.96</v>
+        <v>7.92</v>
       </c>
       <c r="AA44" t="n">
-        <v>13.96</v>
+        <v>5.37</v>
       </c>
       <c r="AB44" t="n">
-        <v>8.949999999999999</v>
+        <v>7.11</v>
       </c>
       <c r="AC44" t="n">
-        <v>10.55</v>
+        <v>7.91</v>
       </c>
       <c r="AD44" t="n">
-        <v>11.43</v>
+        <v>6.65</v>
       </c>
       <c r="AE44" t="n">
-        <v>11.59</v>
+        <v>5.88</v>
       </c>
       <c r="AF44" t="n">
-        <v>6.94</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="45">
@@ -4752,97 +4766,97 @@
         <v>2021</v>
       </c>
       <c r="B45" t="n">
-        <v>6.35</v>
+        <v>5.39</v>
       </c>
       <c r="C45" t="n">
-        <v>5.3</v>
+        <v>6.23</v>
       </c>
       <c r="D45" t="n">
-        <v>7.15</v>
+        <v>7.58</v>
       </c>
       <c r="E45" t="n">
-        <v>7.06</v>
+        <v>7.32</v>
       </c>
       <c r="F45" t="n">
-        <v>6.26</v>
+        <v>7.54</v>
       </c>
       <c r="G45" t="n">
-        <v>4.71</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="H45" t="n">
-        <v>4.7</v>
+        <v>8.08</v>
       </c>
       <c r="I45" t="n">
-        <v>3.59</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J45" t="n">
-        <v>4.67</v>
+        <v>5.59</v>
       </c>
       <c r="K45" t="n">
-        <v>5.65</v>
+        <v>6.77</v>
       </c>
       <c r="L45" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="M45" t="n">
-        <v>8.050000000000001</v>
+        <v>8</v>
       </c>
       <c r="N45" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="O45" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="P45" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="S45" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="T45" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U45" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="V45" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="W45" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="X45" t="n">
+        <v>8.74</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="AC45" t="n">
         <v>8.26</v>
       </c>
-      <c r="O45" t="n">
-        <v>8.34</v>
-      </c>
-      <c r="P45" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="S45" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="T45" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="U45" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="V45" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="W45" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="X45" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>9.68</v>
-      </c>
       <c r="AD45" t="n">
-        <v>11.22</v>
+        <v>6.91</v>
       </c>
       <c r="AE45" t="n">
-        <v>11.62</v>
+        <v>6.09</v>
       </c>
       <c r="AF45" t="n">
-        <v>6.16</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="46">
@@ -4850,140 +4864,164 @@
         <v>2022</v>
       </c>
       <c r="B46" t="n">
-        <v>5.67</v>
+        <v>5.72</v>
       </c>
       <c r="C46" t="n">
-        <v>4.75</v>
+        <v>6.43</v>
       </c>
       <c r="D46" t="n">
-        <v>6.09</v>
+        <v>7.8</v>
       </c>
       <c r="E46" t="n">
-        <v>6.75</v>
+        <v>7.73</v>
       </c>
       <c r="F46" t="n">
-        <v>5.58</v>
+        <v>7.83</v>
       </c>
       <c r="G46" t="n">
-        <v>4.08</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H46" t="n">
-        <v>4.32</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="I46" t="n">
-        <v>3.34</v>
+        <v>9.09</v>
       </c>
       <c r="J46" t="n">
-        <v>4.35</v>
+        <v>5.96</v>
       </c>
       <c r="K46" t="n">
-        <v>5.23</v>
+        <v>7.04</v>
       </c>
       <c r="L46" t="n">
-        <v>6.28</v>
+        <v>6.24</v>
       </c>
       <c r="M46" t="n">
-        <v>7.16</v>
+        <v>8.09</v>
       </c>
       <c r="N46" t="n">
-        <v>7.07</v>
+        <v>6.52</v>
       </c>
       <c r="O46" t="n">
-        <v>7.19</v>
+        <v>6.94</v>
       </c>
       <c r="P46" t="n">
-        <v>6.71</v>
+        <v>7.64</v>
       </c>
       <c r="Q46" t="n">
-        <v>7.42</v>
+        <v>7.5</v>
       </c>
       <c r="R46" t="n">
-        <v>6.08</v>
+        <v>8.09</v>
       </c>
       <c r="S46" t="n">
-        <v>6.23</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="T46" t="n">
-        <v>8.300000000000001</v>
+        <v>4.97</v>
       </c>
       <c r="U46" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="V46" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="W46" t="n">
+        <v>8.09</v>
+      </c>
+      <c r="X46" t="n">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>8.210000000000001</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="AC46" t="n">
         <v>8.51</v>
       </c>
-      <c r="V46" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="W46" t="n">
-        <v>5.98</v>
-      </c>
-      <c r="X46" t="n">
-        <v>6.39</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8.470000000000001</v>
-      </c>
       <c r="AD46" t="n">
-        <v>10.6</v>
+        <v>7.23</v>
       </c>
       <c r="AE46" t="n">
-        <v>10.6</v>
+        <v>6.19</v>
       </c>
       <c r="AF46" t="n">
-        <v>6.53</v>
+        <v>5.76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2023</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="C47" t="n">
+        <v>7.04</v>
+      </c>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>8.380000000000001</v>
+      </c>
+      <c r="F47" t="n">
+        <v>8.42</v>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="K47" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L47" t="n">
+        <v>6.66</v>
+      </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
+      <c r="N47" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="O47" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="P47" t="n">
+        <v>8.19</v>
+      </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="n">
-        <v>8.039999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="X47" t="inlineStr"/>
+        <v>8.9</v>
+      </c>
+      <c r="X47" t="n">
+        <v>9.44</v>
+      </c>
       <c r="Y47" t="n">
-        <v>10.65</v>
+        <v>7.77</v>
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="AD47" t="inlineStr"/>
+        <v>9.039999999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7.57</v>
+      </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
     </row>
